--- a/public/graduate.xlsx
+++ b/public/graduate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwg95\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chankyu\Desktop\sejong-develop\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BC42C1-7DE3-427A-A2A8-3E333C301AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72184D3-119E-4115-A1A8-E8EE635F2FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E42672B6-5628-43E5-814B-5CE3CF828069}"/>
+    <workbookView xWindow="4695" yWindow="2520" windowWidth="11610" windowHeight="11895" xr2:uid="{E42672B6-5628-43E5-814B-5CE3CF828069}"/>
   </bookViews>
   <sheets>
     <sheet name="소프트웨어융합대학" sheetId="2" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="183">
   <si>
     <t>학과명</t>
   </si>
@@ -287,26 +287,6 @@
   </si>
   <si>
     <t>학문기초교양필수과목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급프로그래밍활용, 인공지능과빅데이터, 기초미적분학, 공업수학1, 일반물리학1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급프로그래밍활용, 인공지능과빅데이터, 기초미적분학, 일반물리학1, 일반생물학</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급프로그래밍활용, 인공지능과빅데이터, 기초미적분학, 공업수학1, 통계학개론</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급프로그래밍활용, 인공지능과빅데이터, 고급인공지능활용, 미적분학1, 공업수학1, 통계학개론, 일반물리학1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급프로그래밍활용, 인공지능과빅데이터, 미적분학1, 공업수학1, 일반물리학1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -479,10 +459,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>고급프로그래밍활용, 인공지능과빅데이터, 고급인공지능활용, 기초미적분학, 공업수학1, 일반물리학1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>호텔외식관광프랜차이즈경영학과</t>
   </si>
   <si>
@@ -490,10 +466,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sw기초코딩, 고급프로그래밍활용, 인공지능과빅데이터, 미적분학1, 미적분학2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sw기초코딩, 인공지능과빅데이터, 일반화학1, 일반화학2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -510,10 +482,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sw기초코딩, 고급프로그래밍활용, 고급인공지능활용, 미적분학1, 공업수학1, 공업수학2, 통계학개론, 일반물리학1, 일반물리학2, 일반화학1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>컴퓨터사고기반기초코딩, 인공지능과빅데이터, 인공지능활용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -526,23 +494,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sw기초코딩, 고급프로그래밍활용, 인공지능과빅데이터, 미적분학1, 미적분학2, 일반화학1, 일반화학2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sw기초코딩, 고급인공지능활용, 통계학개론</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sw기초코딩, 고급프로그래밍활용, 인공지능과빅데이터, 고급인공지능활용, 미적분학1, 미적분학2, 공업수학1, 공업수학2, 일반물리학1, 일반화학1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sw기초코딩, 고급인공지능활용, 기초미적분학, 공업수학1, 공업수학2, 통계학개론, 일반물리학1, 일반화학1, 일반화학2, 일반생물학</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw기초코딩, 고급프로그래밍활용, 고급인공지능활용, 미적분학1, 미적분학2, 공업수학1, 공업수학2, 일반물리학1, 일반물리학2, 일반화학1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -664,23 +620,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>세계사:인간과문명, 고급프로그래밍입문- p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>세계사:인간과문명, 컴퓨팅사고기반기초코딩, 프로그래밍입문-p</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>한국현대사의이해, 컴퓨터사고기반기초코딩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계사:인간과문명, 고급프로그래밍입문- p, TechnicalWriting기초</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계사:인간과문명, 고급프로그래밍입문- p, 정보사회의사이버윤리, TechnicalWriting기초</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -777,18 +721,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>세계사:인간과문명, 소프트웨어기초코딩, 고급프로그래밍입문-p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>세계사:인간과문명, 소프트웨어기초코딩, 고급프로그래밍입문-c</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>세계사:인간과문명, 고급프로그래밍입문-p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>세계사:인간과문명, 고급프로그래밍입문-c</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -825,18 +761,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>세계사:인간과문명, 소프트웨어기초코딩, 고급프로그래밍입문-p, 정보사회의사이버윤리, 세계경제의이해, 지구환경과학입문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계사:인간과문명, 고급프로그래밍입문-p, technicalwriting기초</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계사:인간과문명, 고급프로그래밍입문-p, 정보사회의사이버윤리, technicalwriting기초</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>세계사:인간과문명, 소프트웨어기초코딩, 고급프로그래밍입문-c, 정보사회의사이버윤리, 세계경제의이해, 지구환경과학입문</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -887,6 +811,60 @@
   <si>
     <t>일반물리학및실험2, 일반생물학, 통계학개론</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw기초코딩, [고급프로그래밍활용, 고급프로그래밍입문-P], 인공지능과빅데이터, 미적분학1, 미적분학2</t>
+  </si>
+  <si>
+    <t>sw기초코딩, [고급프로그래밍활용, 고급프로그래밍입문-P], 인공지능과빅데이터, 미적분학1, 미적분학2, 일반화학1, 일반화학2</t>
+  </si>
+  <si>
+    <t>[고급프로그래밍활용, 고급프로그래밍입문-P], 인공지능과빅데이터, 기초미적분학, 공업수학1, 일반물리학1</t>
+  </si>
+  <si>
+    <t>[고급프로그래밍활용, 고급프로그래밍입문-P], 인공지능과빅데이터, 기초미적분학, 일반물리학1, 일반생물학</t>
+  </si>
+  <si>
+    <t>[고급프로그래밍활용, 고급프로그래밍입문-P], 인공지능과빅데이터, 기초미적분학, 공업수학1, 통계학개론</t>
+  </si>
+  <si>
+    <t>[고급프로그래밍활용, 고급프로그래밍입문-P], 인공지능과빅데이터, 고급인공지능활용, 미적분학1, 공업수학1, 통계학개론, 일반물리학1</t>
+  </si>
+  <si>
+    <t>[고급프로그래밍활용, 고급프로그래밍입문-P], 인공지능과빅데이터, 미적분학1, 공업수학1, 일반물리학1</t>
+  </si>
+  <si>
+    <t>[고급프로그래밍활용, 고급프로그래밍입문-P], 인공지능과빅데이터, 고급인공지능활용, 기초미적분학, 공업수학1, 일반물리학1</t>
+  </si>
+  <si>
+    <t>sw기초코딩, [고급프로그래밍활용, 고급프로그래밍입문-P], 고급인공지능활용, 미적분학1, 공업수학1, 공업수학2, 통계학개론, 일반물리학1, 일반물리학2, 일반화학1</t>
+  </si>
+  <si>
+    <t>sw기초코딩, [고급프로그래밍활용, 고급프로그래밍입문-P], 인공지능과빅데이터, 고급인공지능활용, 미적분학1, 미적분학2, 공업수학1, 공업수학2, 일반물리학1, 일반화학1</t>
+  </si>
+  <si>
+    <t>sw기초코딩, [고급프로그래밍활용, 고급프로그래밍입문-P], 고급인공지능활용, 미적분학1, 미적분학2, 공업수학1, 공업수학2, 일반물리학1, 일반물리학2, 일반화학1</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명, [고급프로그래밍활용, 고급프로그래밍입문-P], TechnicalWriting기초</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명, [고급프로그래밍활용, 고급프로그래밍입문-P], 정보사회의사이버윤리, TechnicalWriting기초</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명, [고급프로그래밍활용, 고급프로그래밍입문-P]</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명, 소프트웨어기초코딩, [고급프로그래밍활용, 고급프로그래밍입문-P]</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명, [고급프로그래밍활용, 고급프로그래밍입문-P], technicalwriting기초</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명, [고급프로그래밍활용, 고급프로그래밍입문-P], 정보사회의사이버윤리, technicalwriting기초</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명, 소프트웨어기초코딩, [고급프로그래밍활용, 고급프로그래밍입문-P], 정보사회의사이버윤리, 세계경제의이해, 지구환경과학입문</t>
   </si>
 </sst>
 </file>
@@ -1467,9 +1445,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DD17EA-D75D-4D8C-A2EE-9C124D472C3A}">
   <dimension ref="A1:AA353"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M259" sqref="M259"/>
+      <selection pane="topRight" activeCell="A264" sqref="A264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1488,7 +1466,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1521,16 +1499,16 @@
         <v>18</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="3" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1538,7 +1516,7 @@
         <v>2022</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2" s="16">
         <v>13</v>
@@ -1562,14 +1540,14 @@
         <v>130</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -1591,7 +1569,7 @@
         <v>2022</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C3" s="13">
         <v>13</v>
@@ -1615,14 +1593,14 @@
         <v>130</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -1644,7 +1622,7 @@
         <v>2022</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C4" s="16">
         <v>13</v>
@@ -1668,14 +1646,14 @@
         <v>130</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -1697,7 +1675,7 @@
         <v>2022</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C5" s="13">
         <v>13</v>
@@ -1721,14 +1699,14 @@
         <v>130</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -1750,7 +1728,7 @@
         <v>2022</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6" s="16">
         <v>13</v>
@@ -1774,14 +1752,14 @@
         <v>130</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -1803,7 +1781,7 @@
         <v>2022</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" s="13">
         <v>13</v>
@@ -1827,14 +1805,14 @@
         <v>130</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -1856,7 +1834,7 @@
         <v>2022</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C8" s="13">
         <v>13</v>
@@ -1880,14 +1858,14 @@
         <v>130</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1909,7 +1887,7 @@
         <v>2022</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C9" s="13">
         <v>13</v>
@@ -1933,14 +1911,14 @@
         <v>130</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -1962,7 +1940,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C10" s="13">
         <v>13</v>
@@ -1986,14 +1964,14 @@
         <v>130</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -2015,7 +1993,7 @@
         <v>2022</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C11" s="17">
         <v>13</v>
@@ -2039,14 +2017,14 @@
         <v>130</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
@@ -2068,7 +2046,7 @@
         <v>2022</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12" s="13">
         <v>13</v>
@@ -2092,14 +2070,14 @@
         <v>130</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -2121,7 +2099,7 @@
         <v>2022</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C13" s="13">
         <v>13</v>
@@ -2145,14 +2123,14 @@
         <v>130</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -2174,7 +2152,7 @@
         <v>2022</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C14" s="13">
         <v>0</v>
@@ -2199,7 +2177,7 @@
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="9"/>
@@ -2223,7 +2201,7 @@
         <v>2022</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C15" s="13">
         <v>0</v>
@@ -2248,7 +2226,7 @@
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="9"/>
@@ -2272,7 +2250,7 @@
         <v>2022</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C16" s="13">
         <v>0</v>
@@ -2297,7 +2275,7 @@
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="9"/>
@@ -2321,7 +2299,7 @@
         <v>2022</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C17" s="13">
         <v>13</v>
@@ -2345,14 +2323,14 @@
         <v>130</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="10" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -2374,7 +2352,7 @@
         <v>2022</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C18" s="13">
         <v>13</v>
@@ -2398,14 +2376,14 @@
         <v>130</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="10" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -2427,7 +2405,7 @@
         <v>2022</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C19" s="13">
         <v>13</v>
@@ -2451,16 +2429,16 @@
         <v>130</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -2481,7 +2459,7 @@
         <v>2022</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C20" s="13">
         <v>13</v>
@@ -2505,14 +2483,14 @@
         <v>130</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -2534,7 +2512,7 @@
         <v>2022</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C21" s="13">
         <v>13</v>
@@ -2558,14 +2536,14 @@
         <v>130</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -2587,7 +2565,7 @@
         <v>2022</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C22" s="13">
         <v>13</v>
@@ -2611,14 +2589,14 @@
         <v>130</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
@@ -2640,7 +2618,7 @@
         <v>2022</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C23" s="13">
         <v>13</v>
@@ -2664,14 +2642,14 @@
         <v>130</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
@@ -2693,7 +2671,7 @@
         <v>2022</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C24" s="13">
         <v>13</v>
@@ -2717,14 +2695,14 @@
         <v>130</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
@@ -2770,14 +2748,14 @@
         <v>130</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="10" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
@@ -2823,14 +2801,14 @@
         <v>130</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="10" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
@@ -2876,14 +2854,14 @@
         <v>130</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="10" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
@@ -2929,14 +2907,14 @@
         <v>130</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="10" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
@@ -2982,14 +2960,14 @@
         <v>130</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="10" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
@@ -3035,14 +3013,14 @@
         <v>130</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="10" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
@@ -3088,14 +3066,14 @@
         <v>130</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
@@ -3141,14 +3119,14 @@
         <v>130</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
@@ -3194,14 +3172,14 @@
         <v>130</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="10" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
@@ -3223,7 +3201,7 @@
         <v>2022</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C34" s="13">
         <v>13</v>
@@ -3247,14 +3225,14 @@
         <v>130</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="10" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
@@ -3276,7 +3254,7 @@
         <v>2022</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C35" s="13">
         <v>13</v>
@@ -3300,14 +3278,14 @@
         <v>168</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
@@ -3329,7 +3307,7 @@
         <v>2022</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C36" s="13">
         <v>13</v>
@@ -3353,14 +3331,14 @@
         <v>130</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="10" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
@@ -3382,7 +3360,7 @@
         <v>2022</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C37" s="13">
         <v>13</v>
@@ -3406,14 +3384,14 @@
         <v>130</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
@@ -3435,7 +3413,7 @@
         <v>2022</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C38" s="13">
         <v>13</v>
@@ -3459,14 +3437,14 @@
         <v>130</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="10" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
@@ -3488,7 +3466,7 @@
         <v>2022</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C39" s="13">
         <v>13</v>
@@ -3512,14 +3490,14 @@
         <v>130</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
@@ -3541,7 +3519,7 @@
         <v>2022</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C40" s="13">
         <v>13</v>
@@ -3565,14 +3543,14 @@
         <v>130</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
@@ -3594,7 +3572,7 @@
         <v>2022</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C41" s="13">
         <v>13</v>
@@ -3618,14 +3596,14 @@
         <v>130</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
@@ -3647,7 +3625,7 @@
         <v>2022</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C42" s="13">
         <v>13</v>
@@ -3671,14 +3649,14 @@
         <v>130</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
@@ -3700,7 +3678,7 @@
         <v>2022</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C43" s="13">
         <v>12</v>
@@ -3724,14 +3702,14 @@
         <v>130</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="10" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
@@ -3753,7 +3731,7 @@
         <v>2022</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C44" s="13">
         <v>12</v>
@@ -3777,14 +3755,14 @@
         <v>130</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="10" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
@@ -3806,7 +3784,7 @@
         <v>2022</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C45" s="13">
         <v>13</v>
@@ -3830,14 +3808,14 @@
         <v>130</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="10" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
@@ -3859,7 +3837,7 @@
         <v>2022</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C46" s="13">
         <v>13</v>
@@ -3883,14 +3861,14 @@
         <v>130</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="10" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
@@ -3912,7 +3890,7 @@
         <v>2022</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C47" s="13">
         <v>13</v>
@@ -3936,14 +3914,14 @@
         <v>130</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="10" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
@@ -3965,7 +3943,7 @@
         <v>2022</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C48" s="13">
         <v>0</v>
@@ -3990,11 +3968,11 @@
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
@@ -4016,7 +3994,7 @@
         <v>2022</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C49" s="13">
         <v>13</v>
@@ -4040,14 +4018,14 @@
         <v>130</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="10" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
@@ -4069,7 +4047,7 @@
         <v>2022</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C50" s="13">
         <v>13</v>
@@ -4093,14 +4071,14 @@
         <v>130</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="10" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
@@ -4122,7 +4100,7 @@
         <v>2022</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C51" s="13">
         <v>13</v>
@@ -4146,14 +4124,14 @@
         <v>130</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="10" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
@@ -4175,7 +4153,7 @@
         <v>2022</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C52" s="13">
         <v>0</v>
@@ -4222,7 +4200,7 @@
         <v>2022</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C53" s="13">
         <v>0</v>
@@ -4269,7 +4247,7 @@
         <v>2022</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C54" s="13">
         <v>0</v>
@@ -4316,7 +4294,7 @@
         <v>2022</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C55" s="13">
         <v>0</v>
@@ -4363,7 +4341,7 @@
         <v>2021</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C56" s="13">
         <v>14</v>
@@ -4387,13 +4365,13 @@
         <v>130</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="6"/>
@@ -4416,7 +4394,7 @@
         <v>2021</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C57" s="13">
         <v>14</v>
@@ -4440,13 +4418,13 @@
         <v>130</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="6"/>
@@ -4469,7 +4447,7 @@
         <v>2021</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C58" s="13">
         <v>14</v>
@@ -4493,13 +4471,13 @@
         <v>130</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="6"/>
@@ -4522,7 +4500,7 @@
         <v>2021</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C59" s="13">
         <v>14</v>
@@ -4546,13 +4524,13 @@
         <v>130</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="6"/>
@@ -4575,7 +4553,7 @@
         <v>2021</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C60" s="13">
         <v>14</v>
@@ -4599,13 +4577,13 @@
         <v>130</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="6"/>
@@ -4628,7 +4606,7 @@
         <v>2021</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C61" s="13">
         <v>14</v>
@@ -4652,13 +4630,13 @@
         <v>130</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="6"/>
@@ -4681,7 +4659,7 @@
         <v>2021</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C62" s="13">
         <v>14</v>
@@ -4705,13 +4683,13 @@
         <v>130</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="6"/>
@@ -4734,7 +4712,7 @@
         <v>2021</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C63" s="13">
         <v>14</v>
@@ -4758,13 +4736,13 @@
         <v>130</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="6"/>
@@ -4787,7 +4765,7 @@
         <v>2021</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C64" s="13">
         <v>14</v>
@@ -4811,13 +4789,13 @@
         <v>130</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="6"/>
@@ -4840,7 +4818,7 @@
         <v>2021</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C65" s="13">
         <v>14</v>
@@ -4864,13 +4842,13 @@
         <v>130</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="6"/>
@@ -4893,7 +4871,7 @@
         <v>2021</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C66" s="13">
         <v>14</v>
@@ -4917,13 +4895,13 @@
         <v>130</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="6"/>
@@ -4946,7 +4924,7 @@
         <v>2021</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C67" s="13">
         <v>14</v>
@@ -4970,13 +4948,13 @@
         <v>130</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="6"/>
@@ -4999,7 +4977,7 @@
         <v>2021</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C68" s="13">
         <v>0</v>
@@ -5046,7 +5024,7 @@
         <v>2021</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C69" s="13">
         <v>0</v>
@@ -5093,7 +5071,7 @@
         <v>2021</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C70" s="13">
         <v>0</v>
@@ -5140,7 +5118,7 @@
         <v>2021</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C71" s="13">
         <v>14</v>
@@ -5164,16 +5142,16 @@
         <v>130</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
@@ -5195,7 +5173,7 @@
         <v>2021</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C72" s="13">
         <v>14</v>
@@ -5219,16 +5197,16 @@
         <v>130</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
@@ -5250,7 +5228,7 @@
         <v>2021</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C73" s="13">
         <v>14</v>
@@ -5274,16 +5252,16 @@
         <v>130</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
@@ -5305,7 +5283,7 @@
         <v>2021</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C74" s="13">
         <v>14</v>
@@ -5329,19 +5307,19 @@
         <v>130</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K74" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L74" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M74" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N74" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="L74" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="M74" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="N74" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
@@ -5362,7 +5340,7 @@
         <v>2021</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C75" s="13">
         <v>14</v>
@@ -5386,16 +5364,16 @@
         <v>130</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="M75" s="10" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
@@ -5417,7 +5395,7 @@
         <v>2021</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C76" s="13">
         <v>14</v>
@@ -5441,16 +5419,16 @@
         <v>130</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
@@ -5472,7 +5450,7 @@
         <v>2021</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C77" s="13">
         <v>14</v>
@@ -5496,16 +5474,16 @@
         <v>130</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
@@ -5527,7 +5505,7 @@
         <v>2021</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C78" s="13">
         <v>14</v>
@@ -5551,16 +5529,16 @@
         <v>130</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
@@ -5582,7 +5560,7 @@
         <v>2021</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C79" s="13">
         <v>14</v>
@@ -5606,16 +5584,16 @@
         <v>130</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="M79" s="10" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
@@ -5661,16 +5639,16 @@
         <v>130</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
@@ -5716,16 +5694,16 @@
         <v>130</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
@@ -5771,16 +5749,16 @@
         <v>130</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="M82" s="10" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
@@ -5826,16 +5804,16 @@
         <v>130</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L83" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="M83" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="M83" s="10" t="s">
-        <v>145</v>
       </c>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
@@ -5881,16 +5859,16 @@
         <v>130</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="M84" s="10" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
@@ -5936,16 +5914,16 @@
         <v>130</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="M85" s="10" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
@@ -5991,16 +5969,16 @@
         <v>130</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
@@ -6046,16 +6024,16 @@
         <v>130</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="M87" s="10" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
@@ -6101,16 +6079,16 @@
         <v>130</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="M88" s="10" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
@@ -6132,7 +6110,7 @@
         <v>2021</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C89" s="13">
         <v>14</v>
@@ -6156,16 +6134,16 @@
         <v>130</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="M89" s="10" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
@@ -6187,7 +6165,7 @@
         <v>2021</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C90" s="13">
         <v>14</v>
@@ -6211,16 +6189,16 @@
         <v>168</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="N90" s="6"/>
       <c r="O90" s="6"/>
@@ -6242,7 +6220,7 @@
         <v>2021</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C91" s="13">
         <v>14</v>
@@ -6266,16 +6244,16 @@
         <v>130</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L91" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="M91" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="M91" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
@@ -6297,7 +6275,7 @@
         <v>2021</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C92" s="13">
         <v>14</v>
@@ -6321,16 +6299,16 @@
         <v>130</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
@@ -6352,7 +6330,7 @@
         <v>2021</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C93" s="13">
         <v>14</v>
@@ -6376,16 +6354,16 @@
         <v>130</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="M93" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
@@ -6407,7 +6385,7 @@
         <v>2021</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C94" s="13">
         <v>14</v>
@@ -6431,16 +6409,16 @@
         <v>130</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
@@ -6462,7 +6440,7 @@
         <v>2021</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C95" s="13">
         <v>14</v>
@@ -6486,16 +6464,16 @@
         <v>130</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="M95" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N95" s="6"/>
       <c r="O95" s="6"/>
@@ -6517,7 +6495,7 @@
         <v>2021</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C96" s="13">
         <v>14</v>
@@ -6541,16 +6519,16 @@
         <v>130</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="N96" s="6"/>
       <c r="O96" s="6"/>
@@ -6572,7 +6550,7 @@
         <v>2021</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C97" s="13">
         <v>14</v>
@@ -6596,16 +6574,16 @@
         <v>130</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="M97" s="10" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
@@ -6627,7 +6605,7 @@
         <v>2021</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C98" s="13">
         <v>13</v>
@@ -6651,16 +6629,16 @@
         <v>130</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="K98" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="N98" s="6"/>
       <c r="O98" s="6"/>
@@ -6682,7 +6660,7 @@
         <v>2021</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C99" s="13">
         <v>13</v>
@@ -6706,16 +6684,16 @@
         <v>130</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="M99" s="10" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="N99" s="6"/>
       <c r="O99" s="6"/>
@@ -6737,7 +6715,7 @@
         <v>2021</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C100" s="13">
         <v>14</v>
@@ -6761,13 +6739,13 @@
         <v>130</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L100" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="6"/>
@@ -6790,7 +6768,7 @@
         <v>2021</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C101" s="13">
         <v>14</v>
@@ -6814,13 +6792,13 @@
         <v>130</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="6"/>
@@ -6843,7 +6821,7 @@
         <v>2021</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C102" s="13">
         <v>14</v>
@@ -6867,13 +6845,13 @@
         <v>130</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L102" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="6"/>
@@ -6896,7 +6874,7 @@
         <v>2021</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C103" s="13">
         <v>0</v>
@@ -6921,10 +6899,10 @@
       </c>
       <c r="J103" s="8"/>
       <c r="K103" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="6"/>
@@ -6947,7 +6925,7 @@
         <v>2021</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C104" s="13">
         <v>14</v>
@@ -6971,13 +6949,13 @@
         <v>130</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="6"/>
@@ -7000,7 +6978,7 @@
         <v>2021</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C105" s="13">
         <v>14</v>
@@ -7024,13 +7002,13 @@
         <v>130</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="6"/>
@@ -7053,7 +7031,7 @@
         <v>2021</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C106" s="13">
         <v>14</v>
@@ -7077,13 +7055,13 @@
         <v>130</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L106" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="6"/>
@@ -7106,7 +7084,7 @@
         <v>2021</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C107" s="13">
         <v>0</v>
@@ -7153,7 +7131,7 @@
         <v>2021</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C108" s="13">
         <v>0</v>
@@ -7200,7 +7178,7 @@
         <v>2021</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C109" s="13">
         <v>0</v>
@@ -7247,7 +7225,7 @@
         <v>2021</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C110" s="13">
         <v>0</v>
@@ -7294,7 +7272,7 @@
         <v>2020</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C111" s="13">
         <v>14</v>
@@ -7318,13 +7296,13 @@
         <v>130</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L111" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="6"/>
@@ -7347,7 +7325,7 @@
         <v>2020</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C112" s="13">
         <v>14</v>
@@ -7371,13 +7349,13 @@
         <v>130</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K112" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L112" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="6"/>
@@ -7400,7 +7378,7 @@
         <v>2020</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C113" s="13">
         <v>14</v>
@@ -7424,13 +7402,13 @@
         <v>130</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="6"/>
@@ -7453,7 +7431,7 @@
         <v>2020</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C114" s="13">
         <v>14</v>
@@ -7477,13 +7455,13 @@
         <v>130</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K114" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L114" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="6"/>
@@ -7506,7 +7484,7 @@
         <v>2020</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C115" s="13">
         <v>14</v>
@@ -7530,13 +7508,13 @@
         <v>130</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="6"/>
@@ -7559,7 +7537,7 @@
         <v>2020</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C116" s="13">
         <v>14</v>
@@ -7583,13 +7561,13 @@
         <v>130</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K116" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L116" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="6"/>
@@ -7612,7 +7590,7 @@
         <v>2020</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C117" s="13">
         <v>14</v>
@@ -7636,13 +7614,13 @@
         <v>130</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K117" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="6"/>
@@ -7665,7 +7643,7 @@
         <v>2020</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C118" s="13">
         <v>14</v>
@@ -7689,13 +7667,13 @@
         <v>130</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L118" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="6"/>
@@ -7718,7 +7696,7 @@
         <v>2020</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C119" s="13">
         <v>14</v>
@@ -7742,13 +7720,13 @@
         <v>130</v>
       </c>
       <c r="J119" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="6"/>
@@ -7771,7 +7749,7 @@
         <v>2020</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C120" s="13">
         <v>14</v>
@@ -7795,13 +7773,13 @@
         <v>130</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L120" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
@@ -7823,7 +7801,7 @@
         <v>2020</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C121" s="13">
         <v>14</v>
@@ -7847,13 +7825,13 @@
         <v>130</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L121" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="6"/>
@@ -7876,7 +7854,7 @@
         <v>2020</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C122" s="13">
         <v>14</v>
@@ -7900,13 +7878,13 @@
         <v>130</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="6"/>
@@ -7929,7 +7907,7 @@
         <v>2020</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C123" s="13">
         <v>0</v>
@@ -7976,7 +7954,7 @@
         <v>2020</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C124" s="13">
         <v>0</v>
@@ -8023,7 +8001,7 @@
         <v>2020</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C125" s="13">
         <v>0</v>
@@ -8070,7 +8048,7 @@
         <v>2020</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C126" s="13">
         <v>14</v>
@@ -8094,16 +8072,16 @@
         <v>130</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L126" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M126" s="9" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="N126" s="6"/>
       <c r="O126" s="6"/>
@@ -8125,7 +8103,7 @@
         <v>2020</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C127" s="13">
         <v>14</v>
@@ -8149,16 +8127,16 @@
         <v>130</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M127" s="9" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="N127" s="6"/>
       <c r="O127" s="6"/>
@@ -8180,7 +8158,7 @@
         <v>2020</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C128" s="13">
         <v>14</v>
@@ -8204,16 +8182,16 @@
         <v>130</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K128" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L128" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M128" s="9" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="N128" s="6"/>
       <c r="O128" s="6"/>
@@ -8235,7 +8213,7 @@
         <v>2020</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C129" s="13">
         <v>14</v>
@@ -8259,19 +8237,19 @@
         <v>130</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L129" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M129" s="10" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="N129" s="8" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="O129" s="6"/>
       <c r="P129" s="6"/>
@@ -8292,7 +8270,7 @@
         <v>2020</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C130" s="13">
         <v>14</v>
@@ -8316,16 +8294,16 @@
         <v>130</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L130" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M130" s="10" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="N130" s="6"/>
       <c r="O130" s="6"/>
@@ -8347,7 +8325,7 @@
         <v>2020</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C131" s="13">
         <v>14</v>
@@ -8371,16 +8349,16 @@
         <v>130</v>
       </c>
       <c r="J131" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K131" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L131" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M131" s="10" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="N131" s="6"/>
       <c r="O131" s="6"/>
@@ -8402,7 +8380,7 @@
         <v>2020</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C132" s="13">
         <v>14</v>
@@ -8426,16 +8404,16 @@
         <v>130</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L132" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M132" s="10" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="N132" s="6"/>
       <c r="O132" s="6"/>
@@ -8457,7 +8435,7 @@
         <v>2020</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C133" s="13">
         <v>14</v>
@@ -8481,16 +8459,16 @@
         <v>130</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K133" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L133" s="8" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="M133" s="10" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="N133" s="6"/>
       <c r="O133" s="6"/>
@@ -8536,16 +8514,16 @@
         <v>140</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L134" s="8" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="M134" s="10" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="N134" s="6"/>
       <c r="O134" s="6"/>
@@ -8591,16 +8569,16 @@
         <v>140</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L135" s="8" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="M135" s="10" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="N135" s="6"/>
       <c r="O135" s="6"/>
@@ -8646,16 +8624,16 @@
         <v>140</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L136" s="8" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="M136" s="10" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="N136" s="6"/>
       <c r="O136" s="6"/>
@@ -8701,16 +8679,16 @@
         <v>140</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L137" s="8" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="M137" s="10" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="N137" s="6"/>
       <c r="O137" s="6"/>
@@ -8756,16 +8734,16 @@
         <v>130</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L138" s="8" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="M138" s="10" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="N138" s="6"/>
       <c r="O138" s="6"/>
@@ -8811,16 +8789,16 @@
         <v>130</v>
       </c>
       <c r="J139" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K139" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L139" s="8" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="M139" s="10" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="N139" s="6"/>
       <c r="O139" s="6"/>
@@ -8866,13 +8844,13 @@
         <v>130</v>
       </c>
       <c r="J140" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K140" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L140" s="8" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="M140" s="10"/>
       <c r="N140" s="6"/>
@@ -8919,13 +8897,13 @@
         <v>140</v>
       </c>
       <c r="J141" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K141" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L141" s="8" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="M141" s="9"/>
       <c r="N141" s="6"/>
@@ -8948,7 +8926,7 @@
         <v>2020</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C142" s="13">
         <v>14</v>
@@ -8972,16 +8950,16 @@
         <v>130</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K142" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L142" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M142" s="10" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="N142" s="6"/>
       <c r="O142" s="6"/>
@@ -9003,7 +8981,7 @@
         <v>2020</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C143" s="13">
         <v>14</v>
@@ -9027,16 +9005,16 @@
         <v>168</v>
       </c>
       <c r="J143" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K143" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L143" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M143" s="9" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="N143" s="6"/>
       <c r="O143" s="6"/>
@@ -9058,7 +9036,7 @@
         <v>2020</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C144" s="13">
         <v>14</v>
@@ -9082,16 +9060,16 @@
         <v>130</v>
       </c>
       <c r="J144" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K144" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L144" s="8" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="M144" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N144" s="6"/>
       <c r="O144" s="6"/>
@@ -9113,7 +9091,7 @@
         <v>2020</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C145" s="13">
         <v>14</v>
@@ -9137,16 +9115,16 @@
         <v>130</v>
       </c>
       <c r="J145" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K145" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L145" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M145" s="10" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="N145" s="6"/>
       <c r="O145" s="6"/>
@@ -9168,7 +9146,7 @@
         <v>2020</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C146" s="13">
         <v>14</v>
@@ -9192,16 +9170,16 @@
         <v>130</v>
       </c>
       <c r="J146" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K146" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L146" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M146" s="10" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="N146" s="6"/>
       <c r="O146" s="6"/>
@@ -9223,7 +9201,7 @@
         <v>2020</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C147" s="13">
         <v>14</v>
@@ -9247,16 +9225,16 @@
         <v>130</v>
       </c>
       <c r="J147" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K147" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L147" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M147" s="10" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="N147" s="6"/>
       <c r="O147" s="6"/>
@@ -9278,7 +9256,7 @@
         <v>2020</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C148" s="13">
         <v>14</v>
@@ -9302,16 +9280,16 @@
         <v>130</v>
       </c>
       <c r="J148" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K148" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L148" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M148" s="10" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="N148" s="6"/>
       <c r="O148" s="6"/>
@@ -9333,7 +9311,7 @@
         <v>2020</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C149" s="13">
         <v>14</v>
@@ -9357,16 +9335,16 @@
         <v>130</v>
       </c>
       <c r="J149" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K149" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L149" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M149" s="10" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="N149" s="6"/>
       <c r="O149" s="6"/>
@@ -9388,7 +9366,7 @@
         <v>2020</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C150" s="13">
         <v>14</v>
@@ -9412,16 +9390,16 @@
         <v>130</v>
       </c>
       <c r="J150" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K150" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L150" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M150" s="10" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="N150" s="6"/>
       <c r="O150" s="6"/>
@@ -9443,7 +9421,7 @@
         <v>2020</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C151" s="13">
         <v>13</v>
@@ -9467,16 +9445,16 @@
         <v>130</v>
       </c>
       <c r="J151" s="8" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="K151" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L151" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M151" s="10" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="N151" s="6"/>
       <c r="O151" s="6"/>
@@ -9498,7 +9476,7 @@
         <v>2020</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C152" s="13">
         <v>13</v>
@@ -9522,16 +9500,16 @@
         <v>130</v>
       </c>
       <c r="J152" s="8" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="K152" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L152" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M152" s="10" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="N152" s="6"/>
       <c r="O152" s="6"/>
@@ -9553,7 +9531,7 @@
         <v>2020</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C153" s="13">
         <v>14</v>
@@ -9577,13 +9555,13 @@
         <v>130</v>
       </c>
       <c r="J153" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K153" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L153" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M153" s="9"/>
       <c r="N153" s="6"/>
@@ -9606,7 +9584,7 @@
         <v>2020</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C154" s="13">
         <v>14</v>
@@ -9630,13 +9608,13 @@
         <v>130</v>
       </c>
       <c r="J154" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K154" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L154" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M154" s="9"/>
       <c r="N154" s="6"/>
@@ -9659,7 +9637,7 @@
         <v>2020</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C155" s="13">
         <v>14</v>
@@ -9683,13 +9661,13 @@
         <v>130</v>
       </c>
       <c r="J155" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K155" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L155" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M155" s="9"/>
       <c r="N155" s="6"/>
@@ -9712,7 +9690,7 @@
         <v>2020</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C156" s="13">
         <v>0</v>
@@ -9737,10 +9715,10 @@
       </c>
       <c r="J156" s="8"/>
       <c r="K156" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L156" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M156" s="9"/>
       <c r="N156" s="6"/>
@@ -9763,7 +9741,7 @@
         <v>2020</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C157" s="13">
         <v>14</v>
@@ -9787,13 +9765,13 @@
         <v>130</v>
       </c>
       <c r="J157" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K157" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L157" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M157" s="9"/>
       <c r="N157" s="6"/>
@@ -9816,7 +9794,7 @@
         <v>2020</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C158" s="13">
         <v>14</v>
@@ -9840,13 +9818,13 @@
         <v>130</v>
       </c>
       <c r="J158" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K158" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L158" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M158" s="9"/>
       <c r="N158" s="6"/>
@@ -9869,7 +9847,7 @@
         <v>2020</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C159" s="13">
         <v>14</v>
@@ -9893,13 +9871,13 @@
         <v>130</v>
       </c>
       <c r="J159" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K159" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L159" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M159" s="9"/>
       <c r="N159" s="6"/>
@@ -9922,7 +9900,7 @@
         <v>2020</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C160" s="13">
         <v>0</v>
@@ -9969,7 +9947,7 @@
         <v>2020</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C161" s="13">
         <v>0</v>
@@ -10016,7 +9994,7 @@
         <v>2020</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C162" s="13">
         <v>0</v>
@@ -10063,7 +10041,7 @@
         <v>2020</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C163" s="13">
         <v>0</v>
@@ -10110,7 +10088,7 @@
         <v>2019</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C164" s="13">
         <v>14</v>
@@ -10134,13 +10112,13 @@
         <v>130</v>
       </c>
       <c r="J164" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K164" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L164" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M164" s="9"/>
       <c r="N164" s="6"/>
@@ -10163,7 +10141,7 @@
         <v>2019</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C165" s="13">
         <v>14</v>
@@ -10187,13 +10165,13 @@
         <v>130</v>
       </c>
       <c r="J165" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K165" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L165" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M165" s="9"/>
       <c r="N165" s="6"/>
@@ -10216,7 +10194,7 @@
         <v>2019</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C166" s="13">
         <v>14</v>
@@ -10240,13 +10218,13 @@
         <v>130</v>
       </c>
       <c r="J166" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K166" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L166" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M166" s="9"/>
       <c r="N166" s="6"/>
@@ -10269,7 +10247,7 @@
         <v>2019</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C167" s="13">
         <v>14</v>
@@ -10293,13 +10271,13 @@
         <v>130</v>
       </c>
       <c r="J167" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K167" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L167" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M167" s="9"/>
       <c r="N167" s="6"/>
@@ -10322,7 +10300,7 @@
         <v>2019</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C168" s="13">
         <v>14</v>
@@ -10346,13 +10324,13 @@
         <v>130</v>
       </c>
       <c r="J168" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K168" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L168" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M168" s="9"/>
       <c r="N168" s="6"/>
@@ -10375,7 +10353,7 @@
         <v>2019</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C169" s="13">
         <v>14</v>
@@ -10399,13 +10377,13 @@
         <v>130</v>
       </c>
       <c r="J169" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K169" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L169" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M169" s="9"/>
       <c r="N169" s="6"/>
@@ -10428,7 +10406,7 @@
         <v>2019</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C170" s="13">
         <v>14</v>
@@ -10452,13 +10430,13 @@
         <v>130</v>
       </c>
       <c r="J170" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K170" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L170" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M170" s="9"/>
       <c r="N170" s="6"/>
@@ -10481,7 +10459,7 @@
         <v>2019</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C171" s="13">
         <v>14</v>
@@ -10505,13 +10483,13 @@
         <v>130</v>
       </c>
       <c r="J171" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K171" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L171" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M171" s="9"/>
       <c r="N171" s="6"/>
@@ -10534,7 +10512,7 @@
         <v>2019</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C172" s="13">
         <v>14</v>
@@ -10558,13 +10536,13 @@
         <v>130</v>
       </c>
       <c r="J172" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K172" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L172" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M172" s="9"/>
       <c r="N172" s="6"/>
@@ -10587,7 +10565,7 @@
         <v>2019</v>
       </c>
       <c r="B173" s="22" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C173" s="13">
         <v>14</v>
@@ -10611,13 +10589,13 @@
         <v>130</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K173" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L173" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M173" s="6"/>
       <c r="N173" s="6"/>
@@ -10639,7 +10617,7 @@
         <v>2019</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C174" s="13">
         <v>14</v>
@@ -10663,13 +10641,13 @@
         <v>130</v>
       </c>
       <c r="J174" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K174" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L174" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M174" s="9"/>
       <c r="N174" s="6"/>
@@ -10692,7 +10670,7 @@
         <v>2019</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C175" s="13">
         <v>14</v>
@@ -10716,13 +10694,13 @@
         <v>130</v>
       </c>
       <c r="J175" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K175" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L175" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M175" s="9"/>
       <c r="N175" s="6"/>
@@ -10745,7 +10723,7 @@
         <v>2019</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C176" s="13">
         <v>0</v>
@@ -10792,7 +10770,7 @@
         <v>2019</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C177" s="13">
         <v>0</v>
@@ -10839,7 +10817,7 @@
         <v>2019</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C178" s="13">
         <v>0</v>
@@ -10886,7 +10864,7 @@
         <v>2019</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C179" s="13">
         <v>14</v>
@@ -10910,16 +10888,16 @@
         <v>130</v>
       </c>
       <c r="J179" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K179" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L179" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M179" s="9" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="N179" s="6"/>
       <c r="O179" s="6"/>
@@ -10941,7 +10919,7 @@
         <v>2019</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C180" s="13">
         <v>14</v>
@@ -10965,16 +10943,16 @@
         <v>130</v>
       </c>
       <c r="J180" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K180" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L180" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M180" s="9" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="N180" s="6"/>
       <c r="O180" s="6"/>
@@ -10996,7 +10974,7 @@
         <v>2019</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C181" s="13">
         <v>14</v>
@@ -11020,16 +10998,16 @@
         <v>130</v>
       </c>
       <c r="J181" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K181" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L181" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M181" s="9" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="N181" s="6"/>
       <c r="O181" s="6"/>
@@ -11051,7 +11029,7 @@
         <v>2019</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C182" s="13">
         <v>14</v>
@@ -11075,19 +11053,19 @@
         <v>130</v>
       </c>
       <c r="J182" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K182" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L182" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M182" s="10" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="N182" s="6" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="O182" s="6"/>
       <c r="P182" s="6"/>
@@ -11108,7 +11086,7 @@
         <v>2019</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C183" s="13">
         <v>14</v>
@@ -11132,16 +11110,16 @@
         <v>130</v>
       </c>
       <c r="J183" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K183" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L183" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M183" s="10" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="N183" s="6"/>
       <c r="O183" s="6"/>
@@ -11163,7 +11141,7 @@
         <v>2019</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C184" s="13">
         <v>14</v>
@@ -11187,16 +11165,16 @@
         <v>130</v>
       </c>
       <c r="J184" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K184" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L184" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M184" s="10" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="N184" s="6"/>
       <c r="O184" s="6"/>
@@ -11218,7 +11196,7 @@
         <v>2019</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C185" s="13">
         <v>14</v>
@@ -11242,16 +11220,16 @@
         <v>130</v>
       </c>
       <c r="J185" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K185" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L185" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M185" s="10" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="N185" s="6"/>
       <c r="O185" s="6"/>
@@ -11273,7 +11251,7 @@
         <v>2019</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C186" s="13">
         <v>14</v>
@@ -11297,13 +11275,13 @@
         <v>130</v>
       </c>
       <c r="J186" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K186" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M186" s="10" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="N186" s="6"/>
       <c r="O186" s="6"/>
@@ -11349,16 +11327,16 @@
         <v>140</v>
       </c>
       <c r="J187" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K187" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L187" s="8" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="M187" s="10" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="N187" s="6"/>
       <c r="O187" s="6"/>
@@ -11404,16 +11382,16 @@
         <v>140</v>
       </c>
       <c r="J188" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K188" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L188" s="8" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="M188" s="10" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="N188" s="6"/>
       <c r="O188" s="6"/>
@@ -11459,16 +11437,16 @@
         <v>140</v>
       </c>
       <c r="J189" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K189" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L189" s="8" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="M189" s="10" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="N189" s="6"/>
       <c r="O189" s="6"/>
@@ -11514,16 +11492,16 @@
         <v>140</v>
       </c>
       <c r="J190" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K190" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L190" s="8" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="M190" s="10" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="N190" s="6"/>
       <c r="O190" s="6"/>
@@ -11569,16 +11547,16 @@
         <v>130</v>
       </c>
       <c r="J191" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K191" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L191" s="8" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="M191" s="10" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="N191" s="6"/>
       <c r="O191" s="6"/>
@@ -11624,16 +11602,16 @@
         <v>130</v>
       </c>
       <c r="J192" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K192" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L192" s="8" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="M192" s="10" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="N192" s="6"/>
       <c r="O192" s="6"/>
@@ -11679,13 +11657,13 @@
         <v>140</v>
       </c>
       <c r="J193" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K193" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L193" s="8" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="M193" s="9"/>
       <c r="N193" s="6"/>
@@ -11732,13 +11710,13 @@
         <v>140</v>
       </c>
       <c r="J194" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K194" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L194" s="8" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="M194" s="9"/>
       <c r="N194" s="6"/>
@@ -11761,7 +11739,7 @@
         <v>2019</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C195" s="13">
         <v>14</v>
@@ -11785,16 +11763,16 @@
         <v>130</v>
       </c>
       <c r="J195" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K195" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L195" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M195" s="10" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="N195" s="6"/>
       <c r="O195" s="6"/>
@@ -11816,7 +11794,7 @@
         <v>2019</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C196" s="13">
         <v>14</v>
@@ -11840,16 +11818,16 @@
         <v>168</v>
       </c>
       <c r="J196" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K196" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L196" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M196" s="10" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="N196" s="6"/>
       <c r="O196" s="6"/>
@@ -11871,7 +11849,7 @@
         <v>2019</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C197" s="13">
         <v>14</v>
@@ -11895,16 +11873,16 @@
         <v>130</v>
       </c>
       <c r="J197" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K197" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L197" s="8" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="M197" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N197" s="6"/>
       <c r="O197" s="6"/>
@@ -11926,7 +11904,7 @@
         <v>2019</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C198" s="13">
         <v>14</v>
@@ -11950,16 +11928,16 @@
         <v>130</v>
       </c>
       <c r="J198" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K198" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L198" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M198" s="10" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="N198" s="6"/>
       <c r="O198" s="6"/>
@@ -11981,7 +11959,7 @@
         <v>2019</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C199" s="13">
         <v>14</v>
@@ -12005,16 +11983,16 @@
         <v>130</v>
       </c>
       <c r="J199" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K199" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L199" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M199" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N199" s="6"/>
       <c r="O199" s="6"/>
@@ -12036,7 +12014,7 @@
         <v>2019</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C200" s="13">
         <v>14</v>
@@ -12060,16 +12038,16 @@
         <v>130</v>
       </c>
       <c r="J200" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K200" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L200" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M200" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N200" s="6"/>
       <c r="O200" s="6"/>
@@ -12091,7 +12069,7 @@
         <v>2019</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C201" s="13">
         <v>14</v>
@@ -12115,16 +12093,16 @@
         <v>130</v>
       </c>
       <c r="J201" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K201" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L201" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M201" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N201" s="6"/>
       <c r="O201" s="6"/>
@@ -12146,7 +12124,7 @@
         <v>2019</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C202" s="13">
         <v>14</v>
@@ -12170,16 +12148,16 @@
         <v>130</v>
       </c>
       <c r="J202" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K202" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L202" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M202" s="10" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="N202" s="6"/>
       <c r="O202" s="6"/>
@@ -12201,7 +12179,7 @@
         <v>2019</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C203" s="13">
         <v>14</v>
@@ -12225,16 +12203,16 @@
         <v>130</v>
       </c>
       <c r="J203" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K203" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L203" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M203" s="10" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="N203" s="6"/>
       <c r="O203" s="6"/>
@@ -12256,7 +12234,7 @@
         <v>2019</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C204" s="13">
         <v>13</v>
@@ -12280,16 +12258,16 @@
         <v>130</v>
       </c>
       <c r="J204" s="8" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="K204" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L204" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M204" s="10" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="N204" s="6"/>
       <c r="O204" s="6"/>
@@ -12311,7 +12289,7 @@
         <v>2019</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C205" s="13">
         <v>13</v>
@@ -12335,16 +12313,16 @@
         <v>140</v>
       </c>
       <c r="J205" s="8" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="K205" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L205" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M205" s="10" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="N205" s="6"/>
       <c r="O205" s="6"/>
@@ -12366,7 +12344,7 @@
         <v>2019</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C206" s="13">
         <v>14</v>
@@ -12390,13 +12368,13 @@
         <v>130</v>
       </c>
       <c r="J206" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K206" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L206" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M206" s="9"/>
       <c r="N206" s="6"/>
@@ -12419,7 +12397,7 @@
         <v>2019</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C207" s="13">
         <v>14</v>
@@ -12443,13 +12421,13 @@
         <v>130</v>
       </c>
       <c r="J207" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K207" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L207" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M207" s="9"/>
       <c r="N207" s="6"/>
@@ -12472,7 +12450,7 @@
         <v>2019</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C208" s="13">
         <v>14</v>
@@ -12496,13 +12474,13 @@
         <v>130</v>
       </c>
       <c r="J208" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K208" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L208" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M208" s="9"/>
       <c r="N208" s="6"/>
@@ -12525,7 +12503,7 @@
         <v>2019</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C209" s="13">
         <v>0</v>
@@ -12550,10 +12528,10 @@
       </c>
       <c r="J209" s="8"/>
       <c r="K209" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L209" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M209" s="9"/>
       <c r="N209" s="6"/>
@@ -12576,7 +12554,7 @@
         <v>2019</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C210" s="13">
         <v>14</v>
@@ -12600,13 +12578,13 @@
         <v>130</v>
       </c>
       <c r="J210" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K210" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L210" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M210" s="9"/>
       <c r="N210" s="6"/>
@@ -12629,7 +12607,7 @@
         <v>2019</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C211" s="13">
         <v>14</v>
@@ -12653,13 +12631,13 @@
         <v>130</v>
       </c>
       <c r="J211" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K211" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L211" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M211" s="9"/>
       <c r="N211" s="6"/>
@@ -12682,7 +12660,7 @@
         <v>2019</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C212" s="13">
         <v>14</v>
@@ -12706,13 +12684,13 @@
         <v>130</v>
       </c>
       <c r="J212" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K212" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L212" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M212" s="9"/>
       <c r="N212" s="6"/>
@@ -12735,7 +12713,7 @@
         <v>2019</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C213" s="13">
         <v>0</v>
@@ -12782,7 +12760,7 @@
         <v>2019</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C214" s="13">
         <v>0</v>
@@ -12829,7 +12807,7 @@
         <v>2019</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C215" s="13">
         <v>0</v>
@@ -12876,7 +12854,7 @@
         <v>2019</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C216" s="13">
         <v>0</v>
@@ -12923,7 +12901,7 @@
         <v>2018</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C217" s="13">
         <v>13</v>
@@ -12947,13 +12925,13 @@
         <v>130</v>
       </c>
       <c r="J217" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K217" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L217" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M217" s="9"/>
       <c r="N217" s="6"/>
@@ -12976,7 +12954,7 @@
         <v>2018</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C218" s="13">
         <v>13</v>
@@ -13000,13 +12978,13 @@
         <v>130</v>
       </c>
       <c r="J218" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K218" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L218" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M218" s="9"/>
       <c r="N218" s="6"/>
@@ -13029,7 +13007,7 @@
         <v>2018</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C219" s="13">
         <v>13</v>
@@ -13053,13 +13031,13 @@
         <v>130</v>
       </c>
       <c r="J219" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K219" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L219" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M219" s="9"/>
       <c r="N219" s="6"/>
@@ -13082,7 +13060,7 @@
         <v>2018</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C220" s="13">
         <v>13</v>
@@ -13106,13 +13084,13 @@
         <v>130</v>
       </c>
       <c r="J220" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K220" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L220" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M220" s="9"/>
       <c r="N220" s="6"/>
@@ -13135,7 +13113,7 @@
         <v>2018</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C221" s="13">
         <v>13</v>
@@ -13159,13 +13137,13 @@
         <v>130</v>
       </c>
       <c r="J221" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K221" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L221" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M221" s="9"/>
       <c r="N221" s="6"/>
@@ -13188,7 +13166,7 @@
         <v>2018</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C222" s="13">
         <v>13</v>
@@ -13212,13 +13190,13 @@
         <v>130</v>
       </c>
       <c r="J222" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K222" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L222" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M222" s="9"/>
       <c r="N222" s="6"/>
@@ -13241,7 +13219,7 @@
         <v>2018</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C223" s="13">
         <v>13</v>
@@ -13265,13 +13243,13 @@
         <v>130</v>
       </c>
       <c r="J223" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K223" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L223" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M223" s="9"/>
       <c r="N223" s="6"/>
@@ -13294,7 +13272,7 @@
         <v>2018</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C224" s="13">
         <v>13</v>
@@ -13318,13 +13296,13 @@
         <v>130</v>
       </c>
       <c r="J224" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K224" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L224" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M224" s="9"/>
       <c r="N224" s="6"/>
@@ -13347,7 +13325,7 @@
         <v>2018</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C225" s="13">
         <v>13</v>
@@ -13371,13 +13349,13 @@
         <v>130</v>
       </c>
       <c r="J225" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K225" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L225" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M225" s="9"/>
       <c r="N225" s="6"/>
@@ -13400,7 +13378,7 @@
         <v>2018</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C226" s="13">
         <v>13</v>
@@ -13424,13 +13402,13 @@
         <v>130</v>
       </c>
       <c r="J226" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K226" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L226" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M226" s="9"/>
       <c r="N226" s="6"/>
@@ -13453,7 +13431,7 @@
         <v>2018</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C227" s="13">
         <v>13</v>
@@ -13477,13 +13455,13 @@
         <v>130</v>
       </c>
       <c r="J227" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K227" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L227" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M227" s="9"/>
       <c r="N227" s="6"/>
@@ -13506,7 +13484,7 @@
         <v>2018</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C228" s="13">
         <v>13</v>
@@ -13530,13 +13508,13 @@
         <v>130</v>
       </c>
       <c r="J228" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K228" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L228" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M228" s="9"/>
       <c r="N228" s="6"/>
@@ -13559,7 +13537,7 @@
         <v>2018</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C229" s="13">
         <v>0</v>
@@ -13606,7 +13584,7 @@
         <v>2018</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C230" s="13">
         <v>0</v>
@@ -13653,7 +13631,7 @@
         <v>2018</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C231" s="13">
         <v>0</v>
@@ -13700,7 +13678,7 @@
         <v>2018</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C232" s="13">
         <v>13</v>
@@ -13724,16 +13702,16 @@
         <v>130</v>
       </c>
       <c r="J232" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K232" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L232" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M232" s="9" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="N232" s="6"/>
       <c r="O232" s="6"/>
@@ -13755,7 +13733,7 @@
         <v>2018</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C233" s="13">
         <v>13</v>
@@ -13779,16 +13757,16 @@
         <v>130</v>
       </c>
       <c r="J233" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K233" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L233" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M233" s="9" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="N233" s="6"/>
       <c r="O233" s="6"/>
@@ -13810,7 +13788,7 @@
         <v>2018</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C234" s="13">
         <v>13</v>
@@ -13834,16 +13812,16 @@
         <v>130</v>
       </c>
       <c r="J234" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K234" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L234" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M234" s="9" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="N234" s="6"/>
       <c r="O234" s="6"/>
@@ -13865,7 +13843,7 @@
         <v>2018</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C235" s="13">
         <v>13</v>
@@ -13889,22 +13867,22 @@
         <v>130</v>
       </c>
       <c r="J235" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K235" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L235" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M235" s="10" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="N235" s="19" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="O235" s="19" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="P235" s="6"/>
       <c r="Q235" s="6"/>
@@ -13924,7 +13902,7 @@
         <v>2018</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C236" s="13">
         <v>13</v>
@@ -13948,16 +13926,16 @@
         <v>130</v>
       </c>
       <c r="J236" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K236" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L236" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M236" s="10" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="N236" s="6"/>
       <c r="O236" s="6"/>
@@ -13979,7 +13957,7 @@
         <v>2018</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C237" s="13">
         <v>13</v>
@@ -14003,16 +13981,16 @@
         <v>130</v>
       </c>
       <c r="J237" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K237" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L237" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M237" s="10" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="N237" s="6"/>
       <c r="O237" s="6"/>
@@ -14034,7 +14012,7 @@
         <v>2018</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C238" s="13">
         <v>13</v>
@@ -14058,16 +14036,16 @@
         <v>130</v>
       </c>
       <c r="J238" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K238" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L238" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M238" s="10" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="N238" s="6"/>
       <c r="O238" s="6"/>
@@ -14089,7 +14067,7 @@
         <v>2018</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C239" s="13">
         <v>13</v>
@@ -14113,16 +14091,16 @@
         <v>130</v>
       </c>
       <c r="J239" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K239" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L239" s="8" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="M239" s="10" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="N239" s="6"/>
       <c r="O239" s="6"/>
@@ -14168,16 +14146,16 @@
         <v>140</v>
       </c>
       <c r="J240" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K240" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L240" s="8" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="M240" s="10" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="N240" s="6"/>
       <c r="O240" s="6"/>
@@ -14223,16 +14201,16 @@
         <v>140</v>
       </c>
       <c r="J241" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K241" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L241" s="8" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="M241" s="10" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="N241" s="6"/>
       <c r="O241" s="6"/>
@@ -14278,16 +14256,16 @@
         <v>140</v>
       </c>
       <c r="J242" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K242" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L242" s="8" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="M242" s="10" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="N242" s="6"/>
       <c r="O242" s="6"/>
@@ -14333,16 +14311,16 @@
         <v>140</v>
       </c>
       <c r="J243" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K243" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L243" s="8" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="M243" s="10" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="N243" s="6"/>
       <c r="O243" s="6"/>
@@ -14388,16 +14366,16 @@
         <v>130</v>
       </c>
       <c r="J244" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K244" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L244" s="8" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="M244" s="10" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="N244" s="6"/>
       <c r="O244" s="6"/>
@@ -14443,16 +14421,16 @@
         <v>130</v>
       </c>
       <c r="J245" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K245" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L245" s="8" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="M245" s="10" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="N245" s="6"/>
       <c r="O245" s="6"/>
@@ -14498,13 +14476,13 @@
         <v>140</v>
       </c>
       <c r="J246" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K246" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L246" s="8" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="M246" s="9"/>
       <c r="N246" s="6"/>
@@ -14551,13 +14529,13 @@
         <v>140</v>
       </c>
       <c r="J247" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K247" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L247" s="8" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="M247" s="9"/>
       <c r="N247" s="6"/>
@@ -14580,7 +14558,7 @@
         <v>2018</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C248" s="13">
         <v>13</v>
@@ -14604,16 +14582,16 @@
         <v>130</v>
       </c>
       <c r="J248" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K248" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L248" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M248" s="10" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="N248" s="6"/>
       <c r="O248" s="6"/>
@@ -14635,7 +14613,7 @@
         <v>2018</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C249" s="13">
         <v>13</v>
@@ -14659,16 +14637,16 @@
         <v>168</v>
       </c>
       <c r="J249" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K249" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L249" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M249" s="10" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="N249" s="6"/>
       <c r="O249" s="6"/>
@@ -14690,7 +14668,7 @@
         <v>2018</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C250" s="13">
         <v>13</v>
@@ -14714,16 +14692,16 @@
         <v>130</v>
       </c>
       <c r="J250" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K250" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L250" s="8" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="M250" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N250" s="6"/>
       <c r="O250" s="6"/>
@@ -14745,7 +14723,7 @@
         <v>2018</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C251" s="13">
         <v>13</v>
@@ -14769,16 +14747,16 @@
         <v>130</v>
       </c>
       <c r="J251" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K251" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L251" s="8" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="M251" s="10" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="N251" s="6"/>
       <c r="O251" s="6"/>
@@ -14800,7 +14778,7 @@
         <v>2018</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C252" s="13">
         <v>13</v>
@@ -14824,16 +14802,16 @@
         <v>130</v>
       </c>
       <c r="J252" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K252" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L252" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M252" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N252" s="6"/>
       <c r="O252" s="6"/>
@@ -14855,7 +14833,7 @@
         <v>2018</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C253" s="13">
         <v>13</v>
@@ -14879,16 +14857,16 @@
         <v>130</v>
       </c>
       <c r="J253" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K253" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L253" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M253" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N253" s="6"/>
       <c r="O253" s="6"/>
@@ -14910,7 +14888,7 @@
         <v>2018</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C254" s="13">
         <v>13</v>
@@ -14934,16 +14912,16 @@
         <v>130</v>
       </c>
       <c r="J254" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K254" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L254" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M254" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N254" s="6"/>
       <c r="O254" s="6"/>
@@ -14965,7 +14943,7 @@
         <v>2018</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C255" s="13">
         <v>13</v>
@@ -14989,16 +14967,16 @@
         <v>130</v>
       </c>
       <c r="J255" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K255" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L255" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M255" s="10" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="N255" s="6"/>
       <c r="O255" s="6"/>
@@ -15020,7 +14998,7 @@
         <v>2018</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C256" s="13">
         <v>13</v>
@@ -15044,16 +15022,16 @@
         <v>130</v>
       </c>
       <c r="J256" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K256" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L256" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M256" s="10" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="N256" s="6"/>
       <c r="O256" s="6"/>
@@ -15075,7 +15053,7 @@
         <v>2018</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C257" s="13">
         <v>12</v>
@@ -15099,16 +15077,16 @@
         <v>130</v>
       </c>
       <c r="J257" s="8" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="K257" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L257" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M257" s="10" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="N257" s="6"/>
       <c r="O257" s="6"/>
@@ -15130,7 +15108,7 @@
         <v>2018</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C258" s="13">
         <v>12</v>
@@ -15154,16 +15132,16 @@
         <v>140</v>
       </c>
       <c r="J258" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K258" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L258" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="K258" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L258" s="8" t="s">
-        <v>156</v>
-      </c>
       <c r="M258" s="10" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="N258" s="6"/>
       <c r="O258" s="6"/>
@@ -15185,7 +15163,7 @@
         <v>2018</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C259" s="13">
         <v>13</v>
@@ -15209,13 +15187,13 @@
         <v>130</v>
       </c>
       <c r="J259" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K259" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L259" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M259" s="9"/>
       <c r="N259" s="6"/>
@@ -15238,7 +15216,7 @@
         <v>2018</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C260" s="13">
         <v>13</v>
@@ -15262,13 +15240,13 @@
         <v>130</v>
       </c>
       <c r="J260" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K260" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L260" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M260" s="9"/>
       <c r="N260" s="6"/>
@@ -15291,7 +15269,7 @@
         <v>2018</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C261" s="13">
         <v>13</v>
@@ -15315,13 +15293,13 @@
         <v>130</v>
       </c>
       <c r="J261" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K261" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L261" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M261" s="9"/>
       <c r="N261" s="6"/>
@@ -15344,7 +15322,7 @@
         <v>2018</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C262" s="13">
         <v>0</v>
@@ -15369,10 +15347,10 @@
       </c>
       <c r="J262" s="8"/>
       <c r="K262" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L262" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M262" s="9"/>
       <c r="N262" s="6"/>
@@ -15395,7 +15373,7 @@
         <v>2018</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C263" s="13">
         <v>13</v>
@@ -15419,13 +15397,13 @@
         <v>130</v>
       </c>
       <c r="J263" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K263" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L263" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M263" s="9"/>
       <c r="N263" s="6"/>
@@ -15448,7 +15426,7 @@
         <v>2018</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C264" s="13">
         <v>13</v>
@@ -15472,13 +15450,13 @@
         <v>130</v>
       </c>
       <c r="J264" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K264" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L264" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M264" s="9"/>
       <c r="N264" s="6"/>
@@ -15501,7 +15479,7 @@
         <v>2018</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C265" s="13">
         <v>13</v>
@@ -15525,13 +15503,13 @@
         <v>130</v>
       </c>
       <c r="J265" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K265" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L265" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M265" s="9"/>
       <c r="N265" s="6"/>

--- a/public/graduate.xlsx
+++ b/public/graduate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chankyu\Desktop\sejong-develop\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chankyu\Desktop\sejong\Server\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72184D3-119E-4115-A1A8-E8EE635F2FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498B0F5F-893E-4581-A505-AADEDA663B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="2520" windowWidth="11610" windowHeight="11895" xr2:uid="{E42672B6-5628-43E5-814B-5CE3CF828069}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E42672B6-5628-43E5-814B-5CE3CF828069}"/>
   </bookViews>
   <sheets>
     <sheet name="소프트웨어융합대학" sheetId="2" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="162">
   <si>
     <t>학과명</t>
   </si>
@@ -275,22 +275,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>역사와 사상, 자연과 과학, 경제와 사회, 문화와 예술</t>
-  </si>
-  <si>
-    <t>역사와 사상, 자연과 과학, 경제와 사회, 문화와 예술</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>역사와 사상, 자연과 과학, 경제와 사회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>학문기초교양필수과목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터사고기반기초코딩, 인공지능과빅데이터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -418,107 +403,10 @@
     <t>법학전공</t>
   </si>
   <si>
-    <t>영상디자인 융합전공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화산업경영 융합전공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>럭셔리브랜드디자인 융합전공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴미디어퍼포먼스 융합전공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자연과 과학, 경제와
- 사회, 문화와 예술</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>역사와 사상, 자연과
- 과학, 문화와 예쑬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>역사와 사상, 경제와
- 사회, 문화와 예술</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>역사와 사상, 자연과
- 과학, 경제와 사회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>역사와 사상, 자연과
- 과학, 경제와 사회, 문화와 예술</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>호텔외식관광프랜차이즈경영학과</t>
   </si>
   <si>
     <t>호텔외식관광프랜차이즈경영학과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw기초코딩, 인공지능과빅데이터, 일반화학1, 일반화학2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw기초코딩, 인공지능활용, 일반화학1, 일반화학2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw기초코딩, 인공지능과빅데이터, 기초미적분학, 일반화학1, 일반화학2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로그래밍활용-c, 인공지능과빅데이터, 미적분학1, 공업수학1,공업수학2, 일반물리학1, 일반물리학2, 일반화학1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터사고기반기초코딩, 인공지능과빅데이터, 인공지능활용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터사고기반기초코딩, 인공지능과빅데이터, 프로그래밍활용-p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터사고기반기초코딩, 인공지능과빅데이터, 프로그래밍활용-p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw기초코딩, 고급인공지능활용, 통계학개론</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw기초코딩, 고급인공지능활용, 기초미적분학, 공업수학1, 공업수학2, 통계학개론, 일반물리학1, 일반화학1, 일반화학2, 일반생물학</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw기초코딩, 프로그래밍활용-c, 고급인공지능활용, 미적분학1, 미적분학2, 공업수학1, 공업수학2, 일반물리학1, 일반물리학2, 일반화학1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw기초코딩, 고급인공지능활용, 미적분학1, 미적분학2, 공업수학1, 공업수학2, 일반물리학1, 일반물리학2, 일반화학1, 일반화학2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw기초코딩, 프로그래밍활용-c, 고급인공지능활용, 미적분학1, 미적분학2, 공업수학1, 공업수학2, 일반물리학1, 일반물리학2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw기초코딩, 인공지능과빅데이터, 미적분학1, 미적분학2, 공업수학1, 공업수학2, 일반물리학1, 일반물리학2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터사고기반기초코딩, 인공지능과빅데이터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -558,150 +446,7 @@
     <t>원자력공학과</t>
   </si>
   <si>
-    <t>뉴미디어퍼포먼스 융합전공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>럭셔리브랜드디자인 융합전공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화산업경영 융합전공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영상디자인 융합전공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예술경영 융합전공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>역사와 사상, 자연과
- 과학, 문화와 예술</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신입생세미나A, 신입생세미나B, 창업가기업가정신1, 문제해결을위한글쓰기와발표, 서양철학:쟁점과토론, 우주자연인간, 취창업과진로설계, 대학영어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신입생세미나A, 신입생세미나B, 창업가기업가정신1, 문제해결을위한글쓰기와발표, 서양철학:쟁점과토론, 우주자연인간, 취창업과진로설계, 대학영어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>역사와 사상, 경제와 사회, 문화와 예술</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnglishListeningPractice1, EnglishReadingPractice1, 문제해결을위한글쓰기와발표, 서양철학:쟁점과토론, 대학생활과진로탐색, 신입생세미나, 창업과기업가정신1, 취창업과진로설계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>역사와 사상, 자연과
- 과학, 경제와 사회, 문화와 예술</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계사:인간과문명, 한국현대사의이해, 컴퓨터사고기반기초코딩, 프로그래밍입문-p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계사:인간과문명, 소프트웨어기초코딩, 프로그래밍입문-p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계사:인간과문명, 소프트웨어기초코딩, 프로그래밍입문-c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계사:인간과문명, 고급프로그래밍입문- c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계사:인간과문명, 컴퓨팅사고기반기초코딩, 프로그래밍입문-p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국현대사의이해, 컴퓨터사고기반기초코딩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계사:인간과문명, 소프트웨어기초코딩, 프로그래밍입문-p, 정보사회의사이버윤리, 세계경제의이해, 지구환경과학입문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일변수미적분학, 다변수미적분학</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일변수미적분학, 다변수미적분학, 일반화학및실험1, 일반화학및실험2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>교양선택필수과목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반생물학, 통계학개론</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>통계학개론, 일반
-생물학</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일변수미적분학, 공업수학1, 공업수학2, 일반물리학및실험1, 일반물리학및실험2, 일반화학</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기초미적분학, 공업수학1, 일반물리학및실험1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기초미적분학, 일반물리학및실험1, 일반생물학</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기초미적분학,일반화학및실험1, 일반화학및실험1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기초미적분학, 공업수학1, 통계학개론</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일변수미적분학, 공업수학1, 일반물리학및실험1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일변수미적분학, 공업수학1, 일반물리학및실험1, 통계학개론</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일변수미적분학, 다변수미적분학, 공업수학1, 공업수학2, 일반물리학및실험1, 일반물리학및실험2, 일반화학, 통계학개론</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일변수미적분학, 다변수미적분학, 공업수학1, 공업수학2, 일반물리학및실험1, 일반물리학및실험2, 일반화학</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기초미적분학, 공업수학1, 공업수학2, 일반물리학및실험1, 일반화학및실험1, 일반화학및실험2, 일반생물학, 통계학개론</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일변수미적분학, 다변수미적분학, 공업수학1, 공업수학2, 일반물리학및실험1, 일반물리학및실험2, 일반화학실험1, 일반화학실험2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일변수미적분학, 다변수미적분학, 공업수학1, 공업수학2, 일반물리학및실험1, 일반물리학및실험2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기초미적분학, 일변수미적분학, 공업수학1, 공업수학2, 일반물리학및실험1, 일반물리학및실험2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -713,90 +458,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>신입생세미나A, 신입생세미나B, 창업가기업가정신1, 문제해결을위한글쓰기와발표, 서양철학:쟁점과토론, 우주자연인간, 대학영어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnglishListeningPractice1, EnglishReadingPractice1, 문제해결을위한글쓰기와발표, 서양철학:쟁점과토론, 대학생활과진로탐색, 신입생세미나, 창업과기업가정신1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계사:인간과문명, 소프트웨어기초코딩, 고급프로그래밍입문-c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계사:인간과문명, 고급프로그래밍입문-c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일변수미적분학, 다변수미적분학</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기초미적분학, 일반화학및실험1, 일반화학및실험2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일변수미적분학, 공업수학1, 일반물리학및실험1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일변수미적분학, 공업수학1, 일반물리학및실험1, 통계학개론</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일변수미적분학, 다변수미적분학, 공업수학1, 공업수학2, 일반물리학및실험1, 일반물리학및실험2, 일반화학</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일변수미적분학, 다변수미적분학, 공업수학1, 공업수학2, 일반물리학및실험1, 일반물리학및실험2, 일반화학및실험1, 일반화학및실험2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일변수미적분학, 다변수미적분학, 공업수학1, 공업수학2, 일반물리학및실험1, 일반물리학및실험2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기초미적분학, 일변수미적분학, 공업수학1, 공업수학2, 일반물리학및실험1, 일반물리학및실험2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계사:인간과문명, 소프트웨어기초코딩, 고급프로그래밍입문-c, 정보사회의사이버윤리, 세계경제의이해, 지구환경과학입문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일변수미적분학, 다변수미적분학, 공업수학1, 공업수학2, 일반물리학및실험1, 일반물리학및실험2, 통계학개론</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일변수미적분학, 다변수미적분학, 공업수학1, 공업수학2, 일반물리학및실험1, 일반물리학및실험2, 일반화학및실험1, 일반화학및실험2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnglishListeningPractice1, EnglishReadingPractice1, 문제해결을위한글쓰기와발표, 서양철학:쟁점과토론, 대학생활과진로설계, 세종사회봉사1, 취업역량개발론</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnglishListeningPractice1, EnglishReadingPractice1, 문제해결을위한글쓰기와발표, 서양철학:쟁점과토론, 대학생활과진로설계, 세종사회봉사1, 창업과기업가정신1, 취업역량개발론</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnglishListeningPractice1, EnglishReadingPractice1, 문제해결을위한글쓰기와발표, 서양철학:쟁점과토론, 대학생활과진로설계, 세종사회봉사1, 창업과기업가정신1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnglishListeningPractice1, EnglishReadingPractice1, 문제해결을위한글쓰기와발표, 서양철학:쟁점과토론, 대학생활과진로설계, 신입생세미나, 창업과기업가정신1, 취업역량개발론</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnglishListeningPractice1, EnglishReadingPractice1, 문제해결을위한글쓰기와발표, 서양철학:쟁점과토론, 대학생활과진로설계, 신입생세미나, 창업과기업가정신1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnglishListeningPractice1, EnglishReadingPractice1, 문제해결을위한글쓰기와발표, 서양철학:쟁점과토론, 대학생활과진로설계, 세종사회봉사1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>택A(학문기초교양필수과목)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -805,66 +466,253 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>일반물리학및실험1, 일반생물학</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>신입생세미나A,신입생세미나B,창업가기업가정신1,문제해결을위한글쓰기와발표,서양철학:쟁점과토론,우주자연인간,취창업과진로설계,대학영어</t>
   </si>
   <si>
-    <t>일반물리학및실험2, 일반생물학, 통계학개론</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>자연과과학,경제와사회,문화와예술</t>
   </si>
   <si>
-    <t>sw기초코딩, [고급프로그래밍활용, 고급프로그래밍입문-P], 인공지능과빅데이터, 미적분학1, 미적분학2</t>
+    <t>컴퓨터사고기반기초코딩,인공지능과빅데이터,인공지능활용</t>
   </si>
   <si>
-    <t>sw기초코딩, [고급프로그래밍활용, 고급프로그래밍입문-P], 인공지능과빅데이터, 미적분학1, 미적분학2, 일반화학1, 일반화학2</t>
+    <t>컴퓨터사고기반기초코딩,인공지능과빅데이터</t>
   </si>
   <si>
-    <t>[고급프로그래밍활용, 고급프로그래밍입문-P], 인공지능과빅데이터, 기초미적분학, 공업수학1, 일반물리학1</t>
+    <t>역사와사상,자연과과학,문화와예술</t>
   </si>
   <si>
-    <t>[고급프로그래밍활용, 고급프로그래밍입문-P], 인공지능과빅데이터, 기초미적분학, 일반물리학1, 일반생물학</t>
+    <t>컴퓨터사고기반기초코딩,인공지능과빅데이터,프로그래밍활용-P</t>
   </si>
   <si>
-    <t>[고급프로그래밍활용, 고급프로그래밍입문-P], 인공지능과빅데이터, 기초미적분학, 공업수학1, 통계학개론</t>
+    <t>역사와사상,경제와사회,문화와예술</t>
   </si>
   <si>
-    <t>[고급프로그래밍활용, 고급프로그래밍입문-P], 인공지능과빅데이터, 고급인공지능활용, 미적분학1, 공업수학1, 통계학개론, 일반물리학1</t>
+    <t>sw기초코딩,고급프로그래밍활용,인공지능과빅데이터,미적분학1,미적분학2</t>
   </si>
   <si>
-    <t>[고급프로그래밍활용, 고급프로그래밍입문-P], 인공지능과빅데이터, 미적분학1, 공업수학1, 일반물리학1</t>
+    <t>sw기초코딩,고급프로그래밍활용,인공지능과빅데이터,미적분학1,미적분학2,일반화학1,일반화학2</t>
   </si>
   <si>
-    <t>[고급프로그래밍활용, 고급프로그래밍입문-P], 인공지능과빅데이터, 고급인공지능활용, 기초미적분학, 공업수학1, 일반물리학1</t>
+    <t>통계학개론,일반
+생물학</t>
   </si>
   <si>
-    <t>sw기초코딩, [고급프로그래밍활용, 고급프로그래밍입문-P], 고급인공지능활용, 미적분학1, 공업수학1, 공업수학2, 통계학개론, 일반물리학1, 일반물리학2, 일반화학1</t>
+    <t>sw기초코딩,인공지능과빅데이터,일반화학1,일반화학2</t>
   </si>
   <si>
-    <t>sw기초코딩, [고급프로그래밍활용, 고급프로그래밍입문-P], 인공지능과빅데이터, 고급인공지능활용, 미적분학1, 미적분학2, 공업수학1, 공업수학2, 일반물리학1, 일반화학1</t>
+    <t>sw기초코딩,인공지능활용,일반화학1,일반화학2</t>
   </si>
   <si>
-    <t>sw기초코딩, [고급프로그래밍활용, 고급프로그래밍입문-P], 고급인공지능활용, 미적분학1, 미적분학2, 공업수학1, 공업수학2, 일반물리학1, 일반물리학2, 일반화학1</t>
+    <t>sw기초코딩,인공지능과빅데이터,기초미적분학,일반화학1,일반화학2</t>
   </si>
   <si>
-    <t>세계사:인간과문명, [고급프로그래밍활용, 고급프로그래밍입문-P], TechnicalWriting기초</t>
+    <t>프로그래밍활용-c,인공지능과빅데이터,미적분학1,공업수학1,공업수학2,일반물리학1,일반물리학2,일반화학1</t>
   </si>
   <si>
-    <t>세계사:인간과문명, [고급프로그래밍활용, 고급프로그래밍입문-P], 정보사회의사이버윤리, TechnicalWriting기초</t>
+    <t>역사와사상,자연과과학,경제와사회,문화와예술</t>
   </si>
   <si>
-    <t>세계사:인간과문명, [고급프로그래밍활용, 고급프로그래밍입문-P]</t>
+    <t>고급프로그래밍활용,인공지능과빅데이터,기초미적분학,공업수학1,일반물리학1</t>
   </si>
   <si>
-    <t>세계사:인간과문명, 소프트웨어기초코딩, [고급프로그래밍활용, 고급프로그래밍입문-P]</t>
+    <t>고급프로그래밍활용,인공지능과빅데이터,기초미적분학,일반물리학1,일반생물학</t>
   </si>
   <si>
-    <t>세계사:인간과문명, [고급프로그래밍활용, 고급프로그래밍입문-P], technicalwriting기초</t>
+    <t>고급프로그래밍활용,인공지능과빅데이터,기초미적분학,공업수학1,통계학개론</t>
   </si>
   <si>
-    <t>세계사:인간과문명, [고급프로그래밍활용, 고급프로그래밍입문-P], 정보사회의사이버윤리, technicalwriting기초</t>
+    <t>고급프로그래밍활용,인공지능과빅데이터,고급인공지능활용,미적분학1,공업수학1,통계학개론,일반물리학1</t>
   </si>
   <si>
-    <t>세계사:인간과문명, 소프트웨어기초코딩, [고급프로그래밍활용, 고급프로그래밍입문-P], 정보사회의사이버윤리, 세계경제의이해, 지구환경과학입문</t>
+    <t>고급프로그래밍활용,인공지능과빅데이터,미적분학1,공업수학1,일반물리학1</t>
+  </si>
+  <si>
+    <t>역사와사상,자연과과학,경제와사회</t>
+  </si>
+  <si>
+    <t>고급프로그래밍활용,인공지능과빅데이터,고급인공지능활용,기초미적분학,공업수학1,일반물리학1</t>
+  </si>
+  <si>
+    <t>sw기초코딩,고급프로그래밍활용,고급인공지능활용,미적분학1,공업수학1,공업수학2,통계학개론,일반물리학1,일반물리학2,일반화학1</t>
+  </si>
+  <si>
+    <t>sw기초코딩,고급인공지능활용,통계학개론</t>
+  </si>
+  <si>
+    <t>sw기초코딩,고급프로그래밍활용,인공지능과빅데이터,고급인공지능활용,미적분학1,미적분학2,공업수학1,공업수학2,일반물리학1,일반화학1</t>
+  </si>
+  <si>
+    <t>sw기초코딩,고급인공지능활용,기초미적분학,공업수학1,공업수학2,통계학개론,일반물리학1,일반화학1,일반화학2,일반생물학</t>
+  </si>
+  <si>
+    <t>sw기초코딩,고급프로그래밍활용,고급인공지능활용,미적분학1,미적분학2,공업수학1,공업수학2,일반물리학1,일반물리학2,일반화학1</t>
+  </si>
+  <si>
+    <t>sw기초코딩,프로그래밍활용-c,고급인공지능활용,미적분학1,미적분학2,공업수학1,공업수학2,일반물리학1,일반물리학2,일반화학1</t>
+  </si>
+  <si>
+    <t>sw기초코딩,고급인공지능활용,미적분학1,미적분학2,공업수학1,공업수학2,일반물리학1,일반물리학2,일반화학1,일반화학2</t>
+  </si>
+  <si>
+    <t>신입생세미나A,신입생세미나B,창업가기업가정신1,문제해결을위한글쓰기와발표,서양철학:쟁점과토론,우주자연인간,대학영어</t>
+  </si>
+  <si>
+    <t>sw기초코딩,프로그래밍활용-c,고급인공지능활용,미적분학1,미적분학2,공업수학1,공업수학2,일반물리학1,일반물리학2</t>
+  </si>
+  <si>
+    <t>sw기초코딩,인공지능과빅데이터,미적분학1,미적분학2,공업수학1,공업수학2,일반물리학1,일반물리학2</t>
+  </si>
+  <si>
+    <t>역사와사상,자연과
+,과학,경제와사회</t>
+  </si>
+  <si>
+    <t>역사와사상,자연과
+,과학,경제와사회,문화와예술</t>
+  </si>
+  <si>
+    <t>영상디자인,융합전공</t>
+  </si>
+  <si>
+    <t>문화산업경영,융합전공</t>
+  </si>
+  <si>
+    <t>럭셔리브랜드디자인,융합전공</t>
+  </si>
+  <si>
+    <t>뉴미디어퍼포먼스,융합전공</t>
+  </si>
+  <si>
+    <t>EnglishListeningPractice1,EnglishReadingPractice1,문제해결을위한글쓰기와발표,서양철학:쟁점과토론,신입생세미나B,신입생세미나A,창업과기업가정신1,취창업과진로설계</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명,한국현대사의이해,컴퓨터사고기반기초코딩,프로그래밍활용-P</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명,sw기초코딩,프로그래밍활용-P</t>
+  </si>
+  <si>
+    <t>미적분학1,미적분학2</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명,sw기초코딩,프로그래밍입문-c</t>
+  </si>
+  <si>
+    <t>미적분학1,미적분학2,일반화학1,일반화학2</t>
+  </si>
+  <si>
+    <t>일반생물학,통계학개론</t>
+  </si>
+  <si>
+    <t>기초미적분학,일반화학1,일반화학1</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명,고급프로그래밍활용-C</t>
+  </si>
+  <si>
+    <t>미적분학1,공업수학1,공업수학2,일반물리학1,일반물리학2,일반화학</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명,고급프로그래밍활용,TechnicalWriting기초</t>
+  </si>
+  <si>
+    <t>기초미적분학,공업수학1,일반물리학1</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명,고급프로그래밍활용,정보사회의사이버윤리,TechnicalWriting기초</t>
+  </si>
+  <si>
+    <t>기초미적분학,일반물리학1,일반생물학</t>
+  </si>
+  <si>
+    <t>기초미적분학,공업수학1,통계학개론</t>
+  </si>
+  <si>
+    <t>미적분학1,공업수학1,일반물리학1,통계학개론</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명,고급프로그래밍활용</t>
+  </si>
+  <si>
+    <t>미적분학1,공업수학1,일반물리학1</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명,컴퓨팅사고기반기초코딩,프로그래밍활용-P</t>
+  </si>
+  <si>
+    <t>미적분학1,미적분학2,공업수학1,공업수학2,일반물리학1,일반물리학2,일반화학,통계학개론</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명,sw기초코딩,프로그래밍활용-P,정보사회의사이버윤리,세계경제의이해,지구환경과학입문</t>
+  </si>
+  <si>
+    <t>미적분학1,미적분학2,공업수학1,공업수학2,일반물리학1,일반물리학2,일반화학</t>
+  </si>
+  <si>
+    <t>기초미적분학,공업수학1,공업수학2,일반물리학1,일반화학1,일반화학2,일반생물학,통계학개론</t>
+  </si>
+  <si>
+    <t>미적분학1,미적분학2,공업수학1,공업수학2,일반물리학1,일반물리학2,일반화학실험1,일반화학실험2</t>
+  </si>
+  <si>
+    <t>미적분학1,미적분학2,공업수학1,공업수학2,일반물리학1,일반물리학2</t>
+  </si>
+  <si>
+    <t>EnglishListeningPractice1,EnglishReadingPractice1,문제해결을위한글쓰기와발표,서양철학:쟁점과토론,신입생세미나B,신입생세미나A,창업과기업가정신1</t>
+  </si>
+  <si>
+    <t>기초미적분학,미적분학1,공업수학1,공업수학2,일반물리학1,일반물리학2</t>
+  </si>
+  <si>
+    <t>한국현대사의이해,컴퓨터사고기반기초코딩</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명,sw기초코딩,고급프로그래밍활용</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명,sw기초코딩,고급프로그래밍활용-C</t>
+  </si>
+  <si>
+    <t>기초미적분학,일반화학1,일반화학2</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명,고급프로그래밍활용,technicalwriting기초</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명,고급프로그래밍활용,정보사회의사이버윤리,technicalwriting기초</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명,sw기초코딩,고급프로그래밍활용,정보사회의사이버윤리,세계경제의이해,지구환경과학입문</t>
+  </si>
+  <si>
+    <t>미적분학1,미적분학2,공업수학1,공업수학2,일반물리학1,일반물리학2,일반화학1,일반화학2</t>
+  </si>
+  <si>
+    <t>EnglishListeningPractice1,EnglishReadingPractice1,문제해결을위한글쓰기와발표,서양철학:쟁점과토론,신입생세미나B,세종사회봉사1,창업과기업가정신1,취창업과진로설계</t>
+  </si>
+  <si>
+    <t>미적분학1,미적분학2,공업수학1,공업수학2,일반물리학1,일반물리학2,통계학개론</t>
+  </si>
+  <si>
+    <t>세계사:인간과문명,sw기초코딩,고급프로그래밍활용-C,정보사회의사이버윤리,세계경제의이해,지구환경과학입문</t>
+  </si>
+  <si>
+    <t>EnglishListeningPractice1,EnglishReadingPractice1,문제해결을위한글쓰기와발표,서양철학:쟁점과토론,신입생세미나B,세종사회봉사1,창업과기업가정신1</t>
+  </si>
+  <si>
+    <t>예술경영,융합전공</t>
+  </si>
+  <si>
+    <t>EnglishListeningPractice1,EnglishReadingPractice1,문제해결을위한글쓰기와발표,서양철학:쟁점과토론,신입생세미나B,세종사회봉사1,취창업과진로설계</t>
+  </si>
+  <si>
+    <t>일반물리학1,일반생물학</t>
+  </si>
+  <si>
+    <t>일반물리학2,일반생물학,통계학개론</t>
+  </si>
+  <si>
+    <t>EnglishListeningPractice1,EnglishReadingPractice1,문제해결을위한글쓰기와발표,서양철학:쟁점과토론,신입생세미나B,세종사회봉사1</t>
   </si>
 </sst>
 </file>
@@ -1445,28 +1293,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DD17EA-D75D-4D8C-A2EE-9C124D472C3A}">
   <dimension ref="A1:AA353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A264" sqref="A264"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="9" width="10.625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="36.875" customWidth="1"/>
+    <col min="1" max="1" width="14.08203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="9" width="10.58203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="36.83203125" customWidth="1"/>
     <col min="11" max="11" width="18.5" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" style="11" customWidth="1"/>
     <col min="13" max="13" width="26.5" customWidth="1"/>
-    <col min="14" max="14" width="15.625" style="11" customWidth="1"/>
-    <col min="15" max="15" width="17.625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="15.58203125" style="11" customWidth="1"/>
+    <col min="15" max="15" width="17.58203125" style="11" customWidth="1"/>
     <col min="16" max="27" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1499,24 +1347,24 @@
         <v>18</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="3" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="3" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13">
         <v>2022</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="16">
         <v>13</v>
@@ -1540,14 +1388,14 @@
         <v>130</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -1564,12 +1412,12 @@
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
     </row>
-    <row r="3" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="13">
         <v>2022</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" s="13">
         <v>13</v>
@@ -1593,14 +1441,14 @@
         <v>130</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="10" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -1617,12 +1465,12 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
     </row>
-    <row r="4" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="13">
         <v>2022</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="16">
         <v>13</v>
@@ -1646,14 +1494,14 @@
         <v>130</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="10" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -1670,12 +1518,12 @@
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
     </row>
-    <row r="5" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="13">
         <v>2022</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" s="13">
         <v>13</v>
@@ -1699,14 +1547,14 @@
         <v>130</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="10" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -1723,12 +1571,12 @@
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
     </row>
-    <row r="6" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="13">
         <v>2022</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" s="16">
         <v>13</v>
@@ -1752,14 +1600,14 @@
         <v>130</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="10" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -1776,12 +1624,12 @@
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="13">
         <v>2022</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="13">
         <v>13</v>
@@ -1805,14 +1653,14 @@
         <v>130</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="10" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -1829,12 +1677,12 @@
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
     </row>
-    <row r="8" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="13">
         <v>2022</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="13">
         <v>13</v>
@@ -1858,14 +1706,14 @@
         <v>130</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1882,12 +1730,12 @@
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
     </row>
-    <row r="9" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="13">
         <v>2022</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="13">
         <v>13</v>
@@ -1911,14 +1759,14 @@
         <v>130</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="10" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -1935,12 +1783,12 @@
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
     </row>
-    <row r="10" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="13">
         <v>2022</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="13">
         <v>13</v>
@@ -1964,14 +1812,14 @@
         <v>130</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -1988,12 +1836,12 @@
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
     </row>
-    <row r="11" spans="1:27" s="4" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="4" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="13">
         <v>2022</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="17">
         <v>13</v>
@@ -2017,14 +1865,14 @@
         <v>130</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="10" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
@@ -2041,12 +1889,12 @@
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
     </row>
-    <row r="12" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13">
         <v>2022</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" s="13">
         <v>13</v>
@@ -2070,14 +1918,14 @@
         <v>130</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -2094,12 +1942,12 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
     </row>
-    <row r="13" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13">
         <v>2022</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C13" s="13">
         <v>13</v>
@@ -2123,14 +1971,14 @@
         <v>130</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -2147,12 +1995,12 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13">
         <v>2022</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C14" s="13">
         <v>0</v>
@@ -2177,7 +2025,7 @@
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="9"/>
@@ -2196,12 +2044,12 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
     </row>
-    <row r="15" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="13">
         <v>2022</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C15" s="13">
         <v>0</v>
@@ -2226,7 +2074,7 @@
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="9"/>
@@ -2245,12 +2093,12 @@
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
     </row>
-    <row r="16" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="13">
         <v>2022</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C16" s="13">
         <v>0</v>
@@ -2275,7 +2123,7 @@
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="9"/>
@@ -2294,12 +2142,12 @@
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
     </row>
-    <row r="17" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="13">
         <v>2022</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C17" s="13">
         <v>13</v>
@@ -2323,14 +2171,14 @@
         <v>130</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="10" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -2347,12 +2195,12 @@
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
     </row>
-    <row r="18" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="13">
         <v>2022</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C18" s="13">
         <v>13</v>
@@ -2376,14 +2224,14 @@
         <v>130</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="10" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -2400,12 +2248,12 @@
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
     </row>
-    <row r="19" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="13">
         <v>2022</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C19" s="13">
         <v>13</v>
@@ -2429,16 +2277,16 @@
         <v>130</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -2454,12 +2302,12 @@
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
     </row>
-    <row r="20" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="13">
         <v>2022</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C20" s="13">
         <v>13</v>
@@ -2483,14 +2331,14 @@
         <v>130</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -2507,12 +2355,12 @@
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
     </row>
-    <row r="21" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="13">
         <v>2022</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C21" s="13">
         <v>13</v>
@@ -2536,14 +2384,14 @@
         <v>130</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="10" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -2560,12 +2408,12 @@
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
     </row>
-    <row r="22" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="13">
         <v>2022</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C22" s="13">
         <v>13</v>
@@ -2589,14 +2437,14 @@
         <v>130</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
@@ -2613,12 +2461,12 @@
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
     </row>
-    <row r="23" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="13">
         <v>2022</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" s="13">
         <v>13</v>
@@ -2642,14 +2490,14 @@
         <v>130</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="10" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
@@ -2666,12 +2514,12 @@
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
     </row>
-    <row r="24" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="13">
         <v>2022</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C24" s="13">
         <v>13</v>
@@ -2695,14 +2543,14 @@
         <v>130</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="10" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
@@ -2719,7 +2567,7 @@
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
     </row>
-    <row r="25" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="13">
         <v>2022</v>
       </c>
@@ -2748,14 +2596,14 @@
         <v>130</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="10" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
@@ -2772,7 +2620,7 @@
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
     </row>
-    <row r="26" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="13">
         <v>2022</v>
       </c>
@@ -2801,14 +2649,14 @@
         <v>130</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="10" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
@@ -2825,7 +2673,7 @@
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
     </row>
-    <row r="27" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="13">
         <v>2022</v>
       </c>
@@ -2854,14 +2702,14 @@
         <v>130</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="10" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
@@ -2878,7 +2726,7 @@
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
     </row>
-    <row r="28" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="13">
         <v>2022</v>
       </c>
@@ -2907,14 +2755,14 @@
         <v>130</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="10" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
@@ -2931,7 +2779,7 @@
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
     </row>
-    <row r="29" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="13">
         <v>2022</v>
       </c>
@@ -2960,14 +2808,14 @@
         <v>130</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="10" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
@@ -2984,7 +2832,7 @@
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
     </row>
-    <row r="30" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="13">
         <v>2022</v>
       </c>
@@ -3013,14 +2861,14 @@
         <v>130</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="10" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
@@ -3037,7 +2885,7 @@
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
     </row>
-    <row r="31" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="13">
         <v>2022</v>
       </c>
@@ -3066,14 +2914,14 @@
         <v>130</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="10" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
@@ -3090,7 +2938,7 @@
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
     </row>
-    <row r="32" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="13">
         <v>2022</v>
       </c>
@@ -3119,14 +2967,14 @@
         <v>130</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="10" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
@@ -3143,7 +2991,7 @@
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
     </row>
-    <row r="33" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="13">
         <v>2022</v>
       </c>
@@ -3172,14 +3020,14 @@
         <v>130</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="10" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
@@ -3196,12 +3044,12 @@
       <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
     </row>
-    <row r="34" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="13">
         <v>2022</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C34" s="13">
         <v>13</v>
@@ -3225,14 +3073,14 @@
         <v>130</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="10" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
@@ -3249,12 +3097,12 @@
       <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
     </row>
-    <row r="35" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="13">
         <v>2022</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C35" s="13">
         <v>13</v>
@@ -3278,14 +3126,14 @@
         <v>168</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="10" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
@@ -3302,12 +3150,12 @@
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
     </row>
-    <row r="36" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="13">
         <v>2022</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C36" s="13">
         <v>13</v>
@@ -3331,14 +3179,14 @@
         <v>130</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="10" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
@@ -3355,12 +3203,12 @@
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
     </row>
-    <row r="37" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="13">
         <v>2022</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C37" s="13">
         <v>13</v>
@@ -3384,14 +3232,14 @@
         <v>130</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="10" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
@@ -3408,12 +3256,12 @@
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
     </row>
-    <row r="38" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="13">
         <v>2022</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C38" s="13">
         <v>13</v>
@@ -3437,14 +3285,14 @@
         <v>130</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="10" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
@@ -3461,12 +3309,12 @@
       <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
     </row>
-    <row r="39" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="13">
         <v>2022</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C39" s="13">
         <v>13</v>
@@ -3490,14 +3338,14 @@
         <v>130</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="10" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
@@ -3514,12 +3362,12 @@
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
     </row>
-    <row r="40" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="13">
         <v>2022</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C40" s="13">
         <v>13</v>
@@ -3543,14 +3391,14 @@
         <v>130</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="10" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
@@ -3567,12 +3415,12 @@
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
     </row>
-    <row r="41" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="13">
         <v>2022</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C41" s="13">
         <v>13</v>
@@ -3596,14 +3444,14 @@
         <v>130</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="10" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
@@ -3620,12 +3468,12 @@
       <c r="Z41" s="6"/>
       <c r="AA41" s="6"/>
     </row>
-    <row r="42" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="13">
         <v>2022</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C42" s="13">
         <v>13</v>
@@ -3649,14 +3497,14 @@
         <v>130</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="10" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
@@ -3673,12 +3521,12 @@
       <c r="Z42" s="6"/>
       <c r="AA42" s="6"/>
     </row>
-    <row r="43" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="13">
         <v>2022</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C43" s="13">
         <v>12</v>
@@ -3702,14 +3550,14 @@
         <v>130</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="10" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
@@ -3726,12 +3574,12 @@
       <c r="Z43" s="6"/>
       <c r="AA43" s="6"/>
     </row>
-    <row r="44" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="13">
         <v>2022</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C44" s="13">
         <v>12</v>
@@ -3755,14 +3603,14 @@
         <v>130</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="10" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
@@ -3779,12 +3627,12 @@
       <c r="Z44" s="6"/>
       <c r="AA44" s="6"/>
     </row>
-    <row r="45" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="13">
         <v>2022</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C45" s="13">
         <v>13</v>
@@ -3808,14 +3656,14 @@
         <v>130</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
@@ -3832,12 +3680,12 @@
       <c r="Z45" s="6"/>
       <c r="AA45" s="6"/>
     </row>
-    <row r="46" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="13">
         <v>2022</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C46" s="13">
         <v>13</v>
@@ -3861,14 +3709,14 @@
         <v>130</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
@@ -3885,12 +3733,12 @@
       <c r="Z46" s="6"/>
       <c r="AA46" s="6"/>
     </row>
-    <row r="47" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="13">
         <v>2022</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C47" s="13">
         <v>13</v>
@@ -3914,14 +3762,14 @@
         <v>130</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
@@ -3938,12 +3786,12 @@
       <c r="Z47" s="6"/>
       <c r="AA47" s="6"/>
     </row>
-    <row r="48" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="13">
         <v>2022</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C48" s="13">
         <v>0</v>
@@ -3968,11 +3816,11 @@
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="10" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
@@ -3989,12 +3837,12 @@
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
     </row>
-    <row r="49" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="13">
         <v>2022</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C49" s="13">
         <v>13</v>
@@ -4018,14 +3866,14 @@
         <v>130</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
@@ -4042,12 +3890,12 @@
       <c r="Z49" s="6"/>
       <c r="AA49" s="6"/>
     </row>
-    <row r="50" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="13">
         <v>2022</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C50" s="13">
         <v>13</v>
@@ -4071,14 +3919,14 @@
         <v>130</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
@@ -4095,12 +3943,12 @@
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
     </row>
-    <row r="51" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="13">
         <v>2022</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C51" s="13">
         <v>13</v>
@@ -4124,14 +3972,14 @@
         <v>130</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
@@ -4148,12 +3996,12 @@
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
     </row>
-    <row r="52" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="13">
         <v>2022</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="C52" s="13">
         <v>0</v>
@@ -4195,12 +4043,12 @@
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
     </row>
-    <row r="53" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="13">
         <v>2022</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C53" s="13">
         <v>0</v>
@@ -4242,12 +4090,12 @@
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
     </row>
-    <row r="54" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="13">
         <v>2022</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C54" s="13">
         <v>0</v>
@@ -4289,12 +4137,12 @@
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
     </row>
-    <row r="55" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="13">
         <v>2022</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="C55" s="13">
         <v>0</v>
@@ -4336,12 +4184,12 @@
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
     </row>
-    <row r="56" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="24">
         <v>2021</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C56" s="13">
         <v>14</v>
@@ -4365,13 +4213,13 @@
         <v>130</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="6"/>
@@ -4389,12 +4237,12 @@
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
     </row>
-    <row r="57" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="13">
         <v>2021</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C57" s="13">
         <v>14</v>
@@ -4418,13 +4266,13 @@
         <v>130</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="6"/>
@@ -4442,12 +4290,12 @@
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
     </row>
-    <row r="58" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="13">
         <v>2021</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C58" s="13">
         <v>14</v>
@@ -4471,13 +4319,13 @@
         <v>130</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="6"/>
@@ -4495,12 +4343,12 @@
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
     </row>
-    <row r="59" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="13">
         <v>2021</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C59" s="13">
         <v>14</v>
@@ -4524,13 +4372,13 @@
         <v>130</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="6"/>
@@ -4548,12 +4396,12 @@
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
     </row>
-    <row r="60" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="13">
         <v>2021</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C60" s="13">
         <v>14</v>
@@ -4577,13 +4425,13 @@
         <v>130</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="6"/>
@@ -4601,12 +4449,12 @@
       <c r="Z60" s="6"/>
       <c r="AA60" s="6"/>
     </row>
-    <row r="61" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="13">
         <v>2021</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C61" s="13">
         <v>14</v>
@@ -4630,13 +4478,13 @@
         <v>130</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="6"/>
@@ -4654,12 +4502,12 @@
       <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
     </row>
-    <row r="62" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="13">
         <v>2021</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C62" s="13">
         <v>14</v>
@@ -4683,13 +4531,13 @@
         <v>130</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="6"/>
@@ -4707,12 +4555,12 @@
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
     </row>
-    <row r="63" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="13">
         <v>2021</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C63" s="13">
         <v>14</v>
@@ -4736,13 +4584,13 @@
         <v>130</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="6"/>
@@ -4760,12 +4608,12 @@
       <c r="Z63" s="6"/>
       <c r="AA63" s="6"/>
     </row>
-    <row r="64" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="13">
         <v>2021</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C64" s="13">
         <v>14</v>
@@ -4789,13 +4637,13 @@
         <v>130</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="6"/>
@@ -4813,12 +4661,12 @@
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
     </row>
-    <row r="65" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="13">
         <v>2021</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C65" s="13">
         <v>14</v>
@@ -4842,13 +4690,13 @@
         <v>130</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="6"/>
@@ -4866,12 +4714,12 @@
       <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
     </row>
-    <row r="66" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="13">
         <v>2021</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C66" s="13">
         <v>14</v>
@@ -4895,13 +4743,13 @@
         <v>130</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="6"/>
@@ -4919,12 +4767,12 @@
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
     </row>
-    <row r="67" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="13">
         <v>2021</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C67" s="13">
         <v>14</v>
@@ -4948,13 +4796,13 @@
         <v>130</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="6"/>
@@ -4972,12 +4820,12 @@
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
     </row>
-    <row r="68" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="13">
         <v>2021</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C68" s="13">
         <v>0</v>
@@ -5019,12 +4867,12 @@
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
     </row>
-    <row r="69" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="13">
         <v>2021</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C69" s="13">
         <v>0</v>
@@ -5066,12 +4914,12 @@
       <c r="Z69" s="6"/>
       <c r="AA69" s="6"/>
     </row>
-    <row r="70" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="13">
         <v>2021</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C70" s="13">
         <v>0</v>
@@ -5113,12 +4961,12 @@
       <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
     </row>
-    <row r="71" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="13">
         <v>2021</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C71" s="13">
         <v>14</v>
@@ -5142,16 +4990,16 @@
         <v>130</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
@@ -5168,12 +5016,12 @@
       <c r="Z71" s="6"/>
       <c r="AA71" s="6"/>
     </row>
-    <row r="72" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="13">
         <v>2021</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C72" s="13">
         <v>14</v>
@@ -5197,16 +5045,16 @@
         <v>130</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
@@ -5223,12 +5071,12 @@
       <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
     </row>
-    <row r="73" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="13">
         <v>2021</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C73" s="13">
         <v>14</v>
@@ -5252,16 +5100,16 @@
         <v>130</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
@@ -5278,12 +5126,12 @@
       <c r="Z73" s="6"/>
       <c r="AA73" s="6"/>
     </row>
-    <row r="74" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="13">
         <v>2021</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C74" s="13">
         <v>14</v>
@@ -5307,19 +5155,19 @@
         <v>130</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N74" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
@@ -5335,12 +5183,12 @@
       <c r="Z74" s="6"/>
       <c r="AA74" s="6"/>
     </row>
-    <row r="75" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="13">
         <v>2021</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C75" s="13">
         <v>14</v>
@@ -5364,16 +5212,16 @@
         <v>130</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M75" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
@@ -5390,12 +5238,12 @@
       <c r="Z75" s="6"/>
       <c r="AA75" s="6"/>
     </row>
-    <row r="76" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="13">
         <v>2021</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C76" s="13">
         <v>14</v>
@@ -5419,16 +5267,16 @@
         <v>130</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
@@ -5445,12 +5293,12 @@
       <c r="Z76" s="6"/>
       <c r="AA76" s="6"/>
     </row>
-    <row r="77" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="13">
         <v>2021</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C77" s="13">
         <v>14</v>
@@ -5474,16 +5322,16 @@
         <v>130</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
@@ -5500,12 +5348,12 @@
       <c r="Z77" s="6"/>
       <c r="AA77" s="6"/>
     </row>
-    <row r="78" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="13">
         <v>2021</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C78" s="13">
         <v>14</v>
@@ -5529,16 +5377,16 @@
         <v>130</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
@@ -5555,12 +5403,12 @@
       <c r="Z78" s="6"/>
       <c r="AA78" s="6"/>
     </row>
-    <row r="79" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="13">
         <v>2021</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C79" s="13">
         <v>14</v>
@@ -5584,16 +5432,16 @@
         <v>130</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M79" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
@@ -5610,7 +5458,7 @@
       <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
     </row>
-    <row r="80" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="13">
         <v>2021</v>
       </c>
@@ -5639,16 +5487,16 @@
         <v>130</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
@@ -5665,7 +5513,7 @@
       <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
     </row>
-    <row r="81" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="13">
         <v>2021</v>
       </c>
@@ -5694,16 +5542,16 @@
         <v>130</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
@@ -5720,7 +5568,7 @@
       <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
     </row>
-    <row r="82" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="13">
         <v>2021</v>
       </c>
@@ -5749,16 +5597,16 @@
         <v>130</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="M82" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
@@ -5775,7 +5623,7 @@
       <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
     </row>
-    <row r="83" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="13">
         <v>2021</v>
       </c>
@@ -5804,16 +5652,16 @@
         <v>130</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="M83" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
@@ -5830,7 +5678,7 @@
       <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
     </row>
-    <row r="84" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="13">
         <v>2021</v>
       </c>
@@ -5859,16 +5707,16 @@
         <v>130</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="M84" s="10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
@@ -5885,7 +5733,7 @@
       <c r="Z84" s="6"/>
       <c r="AA84" s="6"/>
     </row>
-    <row r="85" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="13">
         <v>2021</v>
       </c>
@@ -5914,16 +5762,16 @@
         <v>130</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="M85" s="10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
@@ -5940,7 +5788,7 @@
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
     </row>
-    <row r="86" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="13">
         <v>2021</v>
       </c>
@@ -5969,16 +5817,16 @@
         <v>130</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
@@ -5995,7 +5843,7 @@
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
     </row>
-    <row r="87" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="13">
         <v>2021</v>
       </c>
@@ -6024,16 +5872,16 @@
         <v>130</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="M87" s="10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
@@ -6050,7 +5898,7 @@
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
     </row>
-    <row r="88" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="13">
         <v>2021</v>
       </c>
@@ -6079,16 +5927,16 @@
         <v>130</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="M88" s="10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
@@ -6105,12 +5953,12 @@
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
     </row>
-    <row r="89" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="13">
         <v>2021</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C89" s="13">
         <v>14</v>
@@ -6134,16 +5982,16 @@
         <v>130</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M89" s="10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
@@ -6160,12 +6008,12 @@
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
     </row>
-    <row r="90" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="13">
         <v>2021</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C90" s="13">
         <v>14</v>
@@ -6189,16 +6037,16 @@
         <v>168</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N90" s="6"/>
       <c r="O90" s="6"/>
@@ -6215,12 +6063,12 @@
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
     </row>
-    <row r="91" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="13">
         <v>2021</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C91" s="13">
         <v>14</v>
@@ -6244,16 +6092,16 @@
         <v>130</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="M91" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
@@ -6270,12 +6118,12 @@
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
     </row>
-    <row r="92" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="13">
         <v>2021</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C92" s="13">
         <v>14</v>
@@ -6299,16 +6147,16 @@
         <v>130</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
@@ -6325,12 +6173,12 @@
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
     </row>
-    <row r="93" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="13">
         <v>2021</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C93" s="13">
         <v>14</v>
@@ -6354,16 +6202,16 @@
         <v>130</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M93" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
@@ -6380,12 +6228,12 @@
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
     </row>
-    <row r="94" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="13">
         <v>2021</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C94" s="13">
         <v>14</v>
@@ -6409,16 +6257,16 @@
         <v>130</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
@@ -6435,12 +6283,12 @@
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
     </row>
-    <row r="95" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="13">
         <v>2021</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C95" s="13">
         <v>14</v>
@@ -6464,16 +6312,16 @@
         <v>130</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M95" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N95" s="6"/>
       <c r="O95" s="6"/>
@@ -6490,12 +6338,12 @@
       <c r="Z95" s="6"/>
       <c r="AA95" s="6"/>
     </row>
-    <row r="96" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="13">
         <v>2021</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C96" s="13">
         <v>14</v>
@@ -6519,16 +6367,16 @@
         <v>130</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="N96" s="6"/>
       <c r="O96" s="6"/>
@@ -6545,12 +6393,12 @@
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
     </row>
-    <row r="97" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="13">
         <v>2021</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C97" s="13">
         <v>14</v>
@@ -6574,16 +6422,16 @@
         <v>130</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M97" s="10" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
@@ -6600,12 +6448,12 @@
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
     </row>
-    <row r="98" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="13">
         <v>2021</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C98" s="13">
         <v>13</v>
@@ -6629,16 +6477,16 @@
         <v>130</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K98" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N98" s="6"/>
       <c r="O98" s="6"/>
@@ -6655,12 +6503,12 @@
       <c r="Z98" s="6"/>
       <c r="AA98" s="6"/>
     </row>
-    <row r="99" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="13">
         <v>2021</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C99" s="13">
         <v>13</v>
@@ -6684,16 +6532,16 @@
         <v>130</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M99" s="10" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N99" s="6"/>
       <c r="O99" s="6"/>
@@ -6710,12 +6558,12 @@
       <c r="Z99" s="6"/>
       <c r="AA99" s="6"/>
     </row>
-    <row r="100" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="13">
         <v>2021</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C100" s="13">
         <v>14</v>
@@ -6739,13 +6587,13 @@
         <v>130</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L100" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="6"/>
@@ -6763,12 +6611,12 @@
       <c r="Z100" s="6"/>
       <c r="AA100" s="6"/>
     </row>
-    <row r="101" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="13">
         <v>2021</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C101" s="13">
         <v>14</v>
@@ -6792,13 +6640,13 @@
         <v>130</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="6"/>
@@ -6816,12 +6664,12 @@
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
     </row>
-    <row r="102" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="13">
         <v>2021</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C102" s="13">
         <v>14</v>
@@ -6845,13 +6693,13 @@
         <v>130</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L102" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="6"/>
@@ -6869,12 +6717,12 @@
       <c r="Z102" s="6"/>
       <c r="AA102" s="6"/>
     </row>
-    <row r="103" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="13">
         <v>2021</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C103" s="13">
         <v>0</v>
@@ -6899,10 +6747,10 @@
       </c>
       <c r="J103" s="8"/>
       <c r="K103" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="6"/>
@@ -6920,12 +6768,12 @@
       <c r="Z103" s="6"/>
       <c r="AA103" s="6"/>
     </row>
-    <row r="104" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="13">
         <v>2021</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C104" s="13">
         <v>14</v>
@@ -6949,13 +6797,13 @@
         <v>130</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="6"/>
@@ -6973,12 +6821,12 @@
       <c r="Z104" s="6"/>
       <c r="AA104" s="6"/>
     </row>
-    <row r="105" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="13">
         <v>2021</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C105" s="13">
         <v>14</v>
@@ -7002,13 +6850,13 @@
         <v>130</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="6"/>
@@ -7026,12 +6874,12 @@
       <c r="Z105" s="6"/>
       <c r="AA105" s="6"/>
     </row>
-    <row r="106" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="13">
         <v>2021</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C106" s="13">
         <v>14</v>
@@ -7055,13 +6903,13 @@
         <v>130</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L106" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="6"/>
@@ -7079,12 +6927,12 @@
       <c r="Z106" s="6"/>
       <c r="AA106" s="6"/>
     </row>
-    <row r="107" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="13">
         <v>2021</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C107" s="13">
         <v>0</v>
@@ -7126,12 +6974,12 @@
       <c r="Z107" s="6"/>
       <c r="AA107" s="6"/>
     </row>
-    <row r="108" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="13">
         <v>2021</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C108" s="13">
         <v>0</v>
@@ -7173,12 +7021,12 @@
       <c r="Z108" s="6"/>
       <c r="AA108" s="6"/>
     </row>
-    <row r="109" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="13">
         <v>2021</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C109" s="13">
         <v>0</v>
@@ -7220,12 +7068,12 @@
       <c r="Z109" s="6"/>
       <c r="AA109" s="6"/>
     </row>
-    <row r="110" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="13">
         <v>2021</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C110" s="13">
         <v>0</v>
@@ -7267,12 +7115,12 @@
       <c r="Z110" s="6"/>
       <c r="AA110" s="6"/>
     </row>
-    <row r="111" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="25">
         <v>2020</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C111" s="13">
         <v>14</v>
@@ -7296,13 +7144,13 @@
         <v>130</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L111" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="6"/>
@@ -7320,12 +7168,12 @@
       <c r="Z111" s="6"/>
       <c r="AA111" s="6"/>
     </row>
-    <row r="112" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="13">
         <v>2020</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C112" s="13">
         <v>14</v>
@@ -7349,13 +7197,13 @@
         <v>130</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K112" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L112" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="6"/>
@@ -7373,12 +7221,12 @@
       <c r="Z112" s="6"/>
       <c r="AA112" s="6"/>
     </row>
-    <row r="113" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="13">
         <v>2020</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C113" s="13">
         <v>14</v>
@@ -7402,13 +7250,13 @@
         <v>130</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="6"/>
@@ -7426,12 +7274,12 @@
       <c r="Z113" s="6"/>
       <c r="AA113" s="6"/>
     </row>
-    <row r="114" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="13">
         <v>2020</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C114" s="13">
         <v>14</v>
@@ -7455,13 +7303,13 @@
         <v>130</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K114" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L114" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="6"/>
@@ -7479,12 +7327,12 @@
       <c r="Z114" s="6"/>
       <c r="AA114" s="6"/>
     </row>
-    <row r="115" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="13">
         <v>2020</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C115" s="13">
         <v>14</v>
@@ -7508,13 +7356,13 @@
         <v>130</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="6"/>
@@ -7532,12 +7380,12 @@
       <c r="Z115" s="6"/>
       <c r="AA115" s="6"/>
     </row>
-    <row r="116" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="13">
         <v>2020</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C116" s="13">
         <v>14</v>
@@ -7561,13 +7409,13 @@
         <v>130</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K116" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L116" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="6"/>
@@ -7585,12 +7433,12 @@
       <c r="Z116" s="6"/>
       <c r="AA116" s="6"/>
     </row>
-    <row r="117" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="13">
         <v>2020</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C117" s="13">
         <v>14</v>
@@ -7614,13 +7462,13 @@
         <v>130</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K117" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="6"/>
@@ -7638,12 +7486,12 @@
       <c r="Z117" s="6"/>
       <c r="AA117" s="6"/>
     </row>
-    <row r="118" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="13">
         <v>2020</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C118" s="13">
         <v>14</v>
@@ -7667,13 +7515,13 @@
         <v>130</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L118" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="6"/>
@@ -7691,12 +7539,12 @@
       <c r="Z118" s="6"/>
       <c r="AA118" s="6"/>
     </row>
-    <row r="119" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="13">
         <v>2020</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C119" s="13">
         <v>14</v>
@@ -7720,13 +7568,13 @@
         <v>130</v>
       </c>
       <c r="J119" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="6"/>
@@ -7744,12 +7592,12 @@
       <c r="Z119" s="6"/>
       <c r="AA119" s="6"/>
     </row>
-    <row r="120" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="13">
         <v>2020</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="C120" s="13">
         <v>14</v>
@@ -7773,13 +7621,13 @@
         <v>130</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L120" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
@@ -7796,12 +7644,12 @@
       <c r="Y120" s="6"/>
       <c r="Z120" s="6"/>
     </row>
-    <row r="121" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="13">
         <v>2020</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C121" s="13">
         <v>14</v>
@@ -7825,13 +7673,13 @@
         <v>130</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L121" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="6"/>
@@ -7849,12 +7697,12 @@
       <c r="Z121" s="6"/>
       <c r="AA121" s="6"/>
     </row>
-    <row r="122" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="13">
         <v>2020</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C122" s="13">
         <v>14</v>
@@ -7878,13 +7726,13 @@
         <v>130</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="6"/>
@@ -7902,12 +7750,12 @@
       <c r="Z122" s="6"/>
       <c r="AA122" s="6"/>
     </row>
-    <row r="123" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="13">
         <v>2020</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C123" s="13">
         <v>0</v>
@@ -7949,12 +7797,12 @@
       <c r="Z123" s="6"/>
       <c r="AA123" s="6"/>
     </row>
-    <row r="124" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="13">
         <v>2020</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C124" s="13">
         <v>0</v>
@@ -7996,12 +7844,12 @@
       <c r="Z124" s="6"/>
       <c r="AA124" s="6"/>
     </row>
-    <row r="125" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="13">
         <v>2020</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C125" s="13">
         <v>0</v>
@@ -8043,12 +7891,12 @@
       <c r="Z125" s="6"/>
       <c r="AA125" s="6"/>
     </row>
-    <row r="126" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="13">
         <v>2020</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C126" s="13">
         <v>14</v>
@@ -8072,16 +7920,16 @@
         <v>130</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L126" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M126" s="9" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="N126" s="6"/>
       <c r="O126" s="6"/>
@@ -8098,12 +7946,12 @@
       <c r="Z126" s="6"/>
       <c r="AA126" s="6"/>
     </row>
-    <row r="127" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="13">
         <v>2020</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C127" s="13">
         <v>14</v>
@@ -8127,16 +7975,16 @@
         <v>130</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M127" s="9" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="N127" s="6"/>
       <c r="O127" s="6"/>
@@ -8153,12 +8001,12 @@
       <c r="Z127" s="6"/>
       <c r="AA127" s="6"/>
     </row>
-    <row r="128" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="13">
         <v>2020</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C128" s="13">
         <v>14</v>
@@ -8182,16 +8030,16 @@
         <v>130</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K128" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L128" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M128" s="9" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="N128" s="6"/>
       <c r="O128" s="6"/>
@@ -8208,12 +8056,12 @@
       <c r="Z128" s="6"/>
       <c r="AA128" s="6"/>
     </row>
-    <row r="129" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="13">
         <v>2020</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C129" s="13">
         <v>14</v>
@@ -8237,19 +8085,19 @@
         <v>130</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L129" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M129" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N129" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O129" s="6"/>
       <c r="P129" s="6"/>
@@ -8265,12 +8113,12 @@
       <c r="Z129" s="6"/>
       <c r="AA129" s="6"/>
     </row>
-    <row r="130" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="13">
         <v>2020</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C130" s="13">
         <v>14</v>
@@ -8294,16 +8142,16 @@
         <v>130</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L130" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M130" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N130" s="6"/>
       <c r="O130" s="6"/>
@@ -8320,12 +8168,12 @@
       <c r="Z130" s="6"/>
       <c r="AA130" s="6"/>
     </row>
-    <row r="131" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="13">
         <v>2020</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C131" s="13">
         <v>14</v>
@@ -8349,16 +8197,16 @@
         <v>130</v>
       </c>
       <c r="J131" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K131" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L131" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M131" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N131" s="6"/>
       <c r="O131" s="6"/>
@@ -8375,12 +8223,12 @@
       <c r="Z131" s="6"/>
       <c r="AA131" s="6"/>
     </row>
-    <row r="132" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="13">
         <v>2020</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C132" s="13">
         <v>14</v>
@@ -8404,16 +8252,16 @@
         <v>130</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L132" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M132" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N132" s="6"/>
       <c r="O132" s="6"/>
@@ -8430,12 +8278,12 @@
       <c r="Z132" s="6"/>
       <c r="AA132" s="6"/>
     </row>
-    <row r="133" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="13">
         <v>2020</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C133" s="13">
         <v>14</v>
@@ -8459,16 +8307,16 @@
         <v>130</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K133" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L133" s="8" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="M133" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N133" s="6"/>
       <c r="O133" s="6"/>
@@ -8485,7 +8333,7 @@
       <c r="Z133" s="6"/>
       <c r="AA133" s="6"/>
     </row>
-    <row r="134" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="13">
         <v>2020</v>
       </c>
@@ -8514,16 +8362,16 @@
         <v>140</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L134" s="8" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="M134" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N134" s="6"/>
       <c r="O134" s="6"/>
@@ -8540,7 +8388,7 @@
       <c r="Z134" s="6"/>
       <c r="AA134" s="6"/>
     </row>
-    <row r="135" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="13">
         <v>2020</v>
       </c>
@@ -8569,16 +8417,16 @@
         <v>140</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L135" s="8" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="M135" s="10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="N135" s="6"/>
       <c r="O135" s="6"/>
@@ -8595,7 +8443,7 @@
       <c r="Z135" s="6"/>
       <c r="AA135" s="6"/>
     </row>
-    <row r="136" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="13">
         <v>2020</v>
       </c>
@@ -8624,16 +8472,16 @@
         <v>140</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L136" s="8" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="M136" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N136" s="6"/>
       <c r="O136" s="6"/>
@@ -8650,7 +8498,7 @@
       <c r="Z136" s="6"/>
       <c r="AA136" s="6"/>
     </row>
-    <row r="137" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="13">
         <v>2020</v>
       </c>
@@ -8679,16 +8527,16 @@
         <v>140</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L137" s="8" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="M137" s="10" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="N137" s="6"/>
       <c r="O137" s="6"/>
@@ -8705,7 +8553,7 @@
       <c r="Z137" s="6"/>
       <c r="AA137" s="6"/>
     </row>
-    <row r="138" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="13">
         <v>2020</v>
       </c>
@@ -8734,16 +8582,16 @@
         <v>130</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L138" s="8" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="M138" s="10" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="N138" s="6"/>
       <c r="O138" s="6"/>
@@ -8760,7 +8608,7 @@
       <c r="Z138" s="6"/>
       <c r="AA138" s="6"/>
     </row>
-    <row r="139" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="13">
         <v>2020</v>
       </c>
@@ -8789,16 +8637,16 @@
         <v>130</v>
       </c>
       <c r="J139" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K139" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L139" s="8" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="M139" s="10" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="N139" s="6"/>
       <c r="O139" s="6"/>
@@ -8815,7 +8663,7 @@
       <c r="Z139" s="6"/>
       <c r="AA139" s="6"/>
     </row>
-    <row r="140" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="13">
         <v>2020</v>
       </c>
@@ -8844,13 +8692,13 @@
         <v>130</v>
       </c>
       <c r="J140" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K140" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L140" s="8" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="M140" s="10"/>
       <c r="N140" s="6"/>
@@ -8868,7 +8716,7 @@
       <c r="Z140" s="6"/>
       <c r="AA140" s="6"/>
     </row>
-    <row r="141" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="13">
         <v>2020</v>
       </c>
@@ -8897,13 +8745,13 @@
         <v>140</v>
       </c>
       <c r="J141" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K141" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L141" s="8" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="M141" s="9"/>
       <c r="N141" s="6"/>
@@ -8921,12 +8769,12 @@
       <c r="Z141" s="6"/>
       <c r="AA141" s="6"/>
     </row>
-    <row r="142" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="13">
         <v>2020</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C142" s="13">
         <v>14</v>
@@ -8950,16 +8798,16 @@
         <v>130</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K142" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L142" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M142" s="10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="N142" s="6"/>
       <c r="O142" s="6"/>
@@ -8976,12 +8824,12 @@
       <c r="Z142" s="6"/>
       <c r="AA142" s="6"/>
     </row>
-    <row r="143" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="13">
         <v>2020</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C143" s="13">
         <v>14</v>
@@ -9005,16 +8853,16 @@
         <v>168</v>
       </c>
       <c r="J143" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K143" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L143" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M143" s="9" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="N143" s="6"/>
       <c r="O143" s="6"/>
@@ -9031,12 +8879,12 @@
       <c r="Z143" s="6"/>
       <c r="AA143" s="6"/>
     </row>
-    <row r="144" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="13">
         <v>2020</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C144" s="13">
         <v>14</v>
@@ -9060,16 +8908,16 @@
         <v>130</v>
       </c>
       <c r="J144" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K144" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L144" s="8" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="M144" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N144" s="6"/>
       <c r="O144" s="6"/>
@@ -9086,12 +8934,12 @@
       <c r="Z144" s="6"/>
       <c r="AA144" s="6"/>
     </row>
-    <row r="145" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="13">
         <v>2020</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C145" s="13">
         <v>14</v>
@@ -9115,16 +8963,16 @@
         <v>130</v>
       </c>
       <c r="J145" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K145" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L145" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M145" s="10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="N145" s="6"/>
       <c r="O145" s="6"/>
@@ -9141,12 +8989,12 @@
       <c r="Z145" s="6"/>
       <c r="AA145" s="6"/>
     </row>
-    <row r="146" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="13">
         <v>2020</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C146" s="13">
         <v>14</v>
@@ -9170,16 +9018,16 @@
         <v>130</v>
       </c>
       <c r="J146" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K146" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L146" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M146" s="10" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="N146" s="6"/>
       <c r="O146" s="6"/>
@@ -9196,12 +9044,12 @@
       <c r="Z146" s="6"/>
       <c r="AA146" s="6"/>
     </row>
-    <row r="147" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="13">
         <v>2020</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C147" s="13">
         <v>14</v>
@@ -9225,16 +9073,16 @@
         <v>130</v>
       </c>
       <c r="J147" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K147" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L147" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M147" s="10" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="N147" s="6"/>
       <c r="O147" s="6"/>
@@ -9251,12 +9099,12 @@
       <c r="Z147" s="6"/>
       <c r="AA147" s="6"/>
     </row>
-    <row r="148" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="13">
         <v>2020</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C148" s="13">
         <v>14</v>
@@ -9280,16 +9128,16 @@
         <v>130</v>
       </c>
       <c r="J148" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K148" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L148" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M148" s="10" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="N148" s="6"/>
       <c r="O148" s="6"/>
@@ -9306,12 +9154,12 @@
       <c r="Z148" s="6"/>
       <c r="AA148" s="6"/>
     </row>
-    <row r="149" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="13">
         <v>2020</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C149" s="13">
         <v>14</v>
@@ -9335,16 +9183,16 @@
         <v>130</v>
       </c>
       <c r="J149" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K149" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L149" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M149" s="10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N149" s="6"/>
       <c r="O149" s="6"/>
@@ -9361,12 +9209,12 @@
       <c r="Z149" s="6"/>
       <c r="AA149" s="6"/>
     </row>
-    <row r="150" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="13">
         <v>2020</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C150" s="13">
         <v>14</v>
@@ -9390,16 +9238,16 @@
         <v>130</v>
       </c>
       <c r="J150" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K150" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L150" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="M150" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="M150" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="N150" s="6"/>
       <c r="O150" s="6"/>
@@ -9416,12 +9264,12 @@
       <c r="Z150" s="6"/>
       <c r="AA150" s="6"/>
     </row>
-    <row r="151" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="13">
         <v>2020</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C151" s="13">
         <v>13</v>
@@ -9445,16 +9293,16 @@
         <v>130</v>
       </c>
       <c r="J151" s="8" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="K151" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L151" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M151" s="10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="N151" s="6"/>
       <c r="O151" s="6"/>
@@ -9471,12 +9319,12 @@
       <c r="Z151" s="6"/>
       <c r="AA151" s="6"/>
     </row>
-    <row r="152" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="13">
         <v>2020</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C152" s="13">
         <v>13</v>
@@ -9500,16 +9348,16 @@
         <v>130</v>
       </c>
       <c r="J152" s="8" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="K152" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L152" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M152" s="10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="N152" s="6"/>
       <c r="O152" s="6"/>
@@ -9526,12 +9374,12 @@
       <c r="Z152" s="6"/>
       <c r="AA152" s="6"/>
     </row>
-    <row r="153" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="13">
         <v>2020</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C153" s="13">
         <v>14</v>
@@ -9555,13 +9403,13 @@
         <v>130</v>
       </c>
       <c r="J153" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K153" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L153" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M153" s="9"/>
       <c r="N153" s="6"/>
@@ -9579,12 +9427,12 @@
       <c r="Z153" s="6"/>
       <c r="AA153" s="6"/>
     </row>
-    <row r="154" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="13">
         <v>2020</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C154" s="13">
         <v>14</v>
@@ -9608,13 +9456,13 @@
         <v>130</v>
       </c>
       <c r="J154" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K154" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L154" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M154" s="9"/>
       <c r="N154" s="6"/>
@@ -9632,12 +9480,12 @@
       <c r="Z154" s="6"/>
       <c r="AA154" s="6"/>
     </row>
-    <row r="155" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="13">
         <v>2020</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C155" s="13">
         <v>14</v>
@@ -9661,13 +9509,13 @@
         <v>130</v>
       </c>
       <c r="J155" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K155" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L155" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M155" s="9"/>
       <c r="N155" s="6"/>
@@ -9685,12 +9533,12 @@
       <c r="Z155" s="6"/>
       <c r="AA155" s="6"/>
     </row>
-    <row r="156" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="13">
         <v>2020</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C156" s="13">
         <v>0</v>
@@ -9715,10 +9563,10 @@
       </c>
       <c r="J156" s="8"/>
       <c r="K156" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L156" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M156" s="9"/>
       <c r="N156" s="6"/>
@@ -9736,12 +9584,12 @@
       <c r="Z156" s="6"/>
       <c r="AA156" s="6"/>
     </row>
-    <row r="157" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="13">
         <v>2020</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C157" s="13">
         <v>14</v>
@@ -9765,13 +9613,13 @@
         <v>130</v>
       </c>
       <c r="J157" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K157" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L157" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M157" s="9"/>
       <c r="N157" s="6"/>
@@ -9789,12 +9637,12 @@
       <c r="Z157" s="6"/>
       <c r="AA157" s="6"/>
     </row>
-    <row r="158" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="13">
         <v>2020</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C158" s="13">
         <v>14</v>
@@ -9818,13 +9666,13 @@
         <v>130</v>
       </c>
       <c r="J158" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K158" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L158" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M158" s="9"/>
       <c r="N158" s="6"/>
@@ -9842,12 +9690,12 @@
       <c r="Z158" s="6"/>
       <c r="AA158" s="6"/>
     </row>
-    <row r="159" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="13">
         <v>2020</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C159" s="13">
         <v>14</v>
@@ -9871,13 +9719,13 @@
         <v>130</v>
       </c>
       <c r="J159" s="8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="K159" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L159" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M159" s="9"/>
       <c r="N159" s="6"/>
@@ -9895,12 +9743,12 @@
       <c r="Z159" s="6"/>
       <c r="AA159" s="6"/>
     </row>
-    <row r="160" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="13">
         <v>2020</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C160" s="13">
         <v>0</v>
@@ -9942,12 +9790,12 @@
       <c r="Z160" s="6"/>
       <c r="AA160" s="6"/>
     </row>
-    <row r="161" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="13">
         <v>2020</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C161" s="13">
         <v>0</v>
@@ -9989,12 +9837,12 @@
       <c r="Z161" s="6"/>
       <c r="AA161" s="6"/>
     </row>
-    <row r="162" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="13">
         <v>2020</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C162" s="13">
         <v>0</v>
@@ -10036,12 +9884,12 @@
       <c r="Z162" s="6"/>
       <c r="AA162" s="6"/>
     </row>
-    <row r="163" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="13">
         <v>2020</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C163" s="13">
         <v>0</v>
@@ -10083,12 +9931,12 @@
       <c r="Z163" s="6"/>
       <c r="AA163" s="6"/>
     </row>
-    <row r="164" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="24">
         <v>2019</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C164" s="13">
         <v>14</v>
@@ -10112,13 +9960,13 @@
         <v>130</v>
       </c>
       <c r="J164" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K164" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L164" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M164" s="9"/>
       <c r="N164" s="6"/>
@@ -10136,12 +9984,12 @@
       <c r="Z164" s="6"/>
       <c r="AA164" s="6"/>
     </row>
-    <row r="165" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="13">
         <v>2019</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C165" s="13">
         <v>14</v>
@@ -10165,13 +10013,13 @@
         <v>130</v>
       </c>
       <c r="J165" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K165" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L165" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M165" s="9"/>
       <c r="N165" s="6"/>
@@ -10189,12 +10037,12 @@
       <c r="Z165" s="6"/>
       <c r="AA165" s="6"/>
     </row>
-    <row r="166" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="13">
         <v>2019</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C166" s="13">
         <v>14</v>
@@ -10218,13 +10066,13 @@
         <v>130</v>
       </c>
       <c r="J166" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K166" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L166" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M166" s="9"/>
       <c r="N166" s="6"/>
@@ -10242,12 +10090,12 @@
       <c r="Z166" s="6"/>
       <c r="AA166" s="6"/>
     </row>
-    <row r="167" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="13">
         <v>2019</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C167" s="13">
         <v>14</v>
@@ -10271,13 +10119,13 @@
         <v>130</v>
       </c>
       <c r="J167" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K167" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L167" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M167" s="9"/>
       <c r="N167" s="6"/>
@@ -10295,12 +10143,12 @@
       <c r="Z167" s="6"/>
       <c r="AA167" s="6"/>
     </row>
-    <row r="168" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="13">
         <v>2019</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C168" s="13">
         <v>14</v>
@@ -10324,13 +10172,13 @@
         <v>130</v>
       </c>
       <c r="J168" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K168" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L168" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M168" s="9"/>
       <c r="N168" s="6"/>
@@ -10348,12 +10196,12 @@
       <c r="Z168" s="6"/>
       <c r="AA168" s="6"/>
     </row>
-    <row r="169" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="13">
         <v>2019</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C169" s="13">
         <v>14</v>
@@ -10377,13 +10225,13 @@
         <v>130</v>
       </c>
       <c r="J169" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K169" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L169" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M169" s="9"/>
       <c r="N169" s="6"/>
@@ -10401,12 +10249,12 @@
       <c r="Z169" s="6"/>
       <c r="AA169" s="6"/>
     </row>
-    <row r="170" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="13">
         <v>2019</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C170" s="13">
         <v>14</v>
@@ -10430,13 +10278,13 @@
         <v>130</v>
       </c>
       <c r="J170" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K170" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L170" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M170" s="9"/>
       <c r="N170" s="6"/>
@@ -10454,12 +10302,12 @@
       <c r="Z170" s="6"/>
       <c r="AA170" s="6"/>
     </row>
-    <row r="171" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="13">
         <v>2019</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C171" s="13">
         <v>14</v>
@@ -10483,13 +10331,13 @@
         <v>130</v>
       </c>
       <c r="J171" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K171" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L171" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M171" s="9"/>
       <c r="N171" s="6"/>
@@ -10507,12 +10355,12 @@
       <c r="Z171" s="6"/>
       <c r="AA171" s="6"/>
     </row>
-    <row r="172" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="13">
         <v>2019</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C172" s="13">
         <v>14</v>
@@ -10536,13 +10384,13 @@
         <v>130</v>
       </c>
       <c r="J172" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K172" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L172" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M172" s="9"/>
       <c r="N172" s="6"/>
@@ -10560,12 +10408,12 @@
       <c r="Z172" s="6"/>
       <c r="AA172" s="6"/>
     </row>
-    <row r="173" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="13">
         <v>2019</v>
       </c>
       <c r="B173" s="22" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C173" s="13">
         <v>14</v>
@@ -10589,13 +10437,13 @@
         <v>130</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K173" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L173" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M173" s="6"/>
       <c r="N173" s="6"/>
@@ -10612,12 +10460,12 @@
       <c r="Y173" s="6"/>
       <c r="Z173" s="6"/>
     </row>
-    <row r="174" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="13">
         <v>2019</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C174" s="13">
         <v>14</v>
@@ -10641,13 +10489,13 @@
         <v>130</v>
       </c>
       <c r="J174" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K174" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L174" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M174" s="9"/>
       <c r="N174" s="6"/>
@@ -10665,12 +10513,12 @@
       <c r="Z174" s="6"/>
       <c r="AA174" s="6"/>
     </row>
-    <row r="175" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="13">
         <v>2019</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C175" s="13">
         <v>14</v>
@@ -10694,13 +10542,13 @@
         <v>130</v>
       </c>
       <c r="J175" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K175" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L175" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M175" s="9"/>
       <c r="N175" s="6"/>
@@ -10718,12 +10566,12 @@
       <c r="Z175" s="6"/>
       <c r="AA175" s="6"/>
     </row>
-    <row r="176" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="13">
         <v>2019</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C176" s="13">
         <v>0</v>
@@ -10765,12 +10613,12 @@
       <c r="Z176" s="6"/>
       <c r="AA176" s="6"/>
     </row>
-    <row r="177" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="13">
         <v>2019</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C177" s="13">
         <v>0</v>
@@ -10812,12 +10660,12 @@
       <c r="Z177" s="6"/>
       <c r="AA177" s="6"/>
     </row>
-    <row r="178" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="13">
         <v>2019</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C178" s="13">
         <v>0</v>
@@ -10859,12 +10707,12 @@
       <c r="Z178" s="6"/>
       <c r="AA178" s="6"/>
     </row>
-    <row r="179" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="13">
         <v>2019</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C179" s="13">
         <v>14</v>
@@ -10888,16 +10736,16 @@
         <v>130</v>
       </c>
       <c r="J179" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K179" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L179" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M179" s="9" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="N179" s="6"/>
       <c r="O179" s="6"/>
@@ -10914,12 +10762,12 @@
       <c r="Z179" s="6"/>
       <c r="AA179" s="6"/>
     </row>
-    <row r="180" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="13">
         <v>2019</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C180" s="13">
         <v>14</v>
@@ -10943,16 +10791,16 @@
         <v>130</v>
       </c>
       <c r="J180" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K180" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L180" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M180" s="9" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="N180" s="6"/>
       <c r="O180" s="6"/>
@@ -10969,12 +10817,12 @@
       <c r="Z180" s="6"/>
       <c r="AA180" s="6"/>
     </row>
-    <row r="181" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="13">
         <v>2019</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C181" s="13">
         <v>14</v>
@@ -10998,16 +10846,16 @@
         <v>130</v>
       </c>
       <c r="J181" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K181" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L181" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M181" s="9" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="N181" s="6"/>
       <c r="O181" s="6"/>
@@ -11024,12 +10872,12 @@
       <c r="Z181" s="6"/>
       <c r="AA181" s="6"/>
     </row>
-    <row r="182" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="13">
         <v>2019</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C182" s="13">
         <v>14</v>
@@ -11053,19 +10901,19 @@
         <v>130</v>
       </c>
       <c r="J182" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K182" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L182" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M182" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N182" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O182" s="6"/>
       <c r="P182" s="6"/>
@@ -11081,12 +10929,12 @@
       <c r="Z182" s="6"/>
       <c r="AA182" s="6"/>
     </row>
-    <row r="183" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="13">
         <v>2019</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C183" s="13">
         <v>14</v>
@@ -11110,16 +10958,16 @@
         <v>130</v>
       </c>
       <c r="J183" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K183" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L183" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M183" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N183" s="6"/>
       <c r="O183" s="6"/>
@@ -11136,12 +10984,12 @@
       <c r="Z183" s="6"/>
       <c r="AA183" s="6"/>
     </row>
-    <row r="184" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="13">
         <v>2019</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C184" s="13">
         <v>14</v>
@@ -11165,16 +11013,16 @@
         <v>130</v>
       </c>
       <c r="J184" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K184" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L184" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M184" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N184" s="6"/>
       <c r="O184" s="6"/>
@@ -11191,12 +11039,12 @@
       <c r="Z184" s="6"/>
       <c r="AA184" s="6"/>
     </row>
-    <row r="185" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="13">
         <v>2019</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C185" s="13">
         <v>14</v>
@@ -11220,16 +11068,16 @@
         <v>130</v>
       </c>
       <c r="J185" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K185" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L185" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M185" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N185" s="6"/>
       <c r="O185" s="6"/>
@@ -11246,12 +11094,12 @@
       <c r="Z185" s="6"/>
       <c r="AA185" s="6"/>
     </row>
-    <row r="186" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="13">
         <v>2019</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C186" s="13">
         <v>14</v>
@@ -11275,13 +11123,13 @@
         <v>130</v>
       </c>
       <c r="J186" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K186" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="M186" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N186" s="6"/>
       <c r="O186" s="6"/>
@@ -11298,7 +11146,7 @@
       <c r="Z186" s="6"/>
       <c r="AA186" s="6"/>
     </row>
-    <row r="187" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="13">
         <v>2019</v>
       </c>
@@ -11327,16 +11175,16 @@
         <v>140</v>
       </c>
       <c r="J187" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K187" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L187" s="8" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="M187" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N187" s="6"/>
       <c r="O187" s="6"/>
@@ -11353,7 +11201,7 @@
       <c r="Z187" s="6"/>
       <c r="AA187" s="6"/>
     </row>
-    <row r="188" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="13">
         <v>2019</v>
       </c>
@@ -11382,16 +11230,16 @@
         <v>140</v>
       </c>
       <c r="J188" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K188" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L188" s="8" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="M188" s="10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="N188" s="6"/>
       <c r="O188" s="6"/>
@@ -11408,7 +11256,7 @@
       <c r="Z188" s="6"/>
       <c r="AA188" s="6"/>
     </row>
-    <row r="189" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="13">
         <v>2019</v>
       </c>
@@ -11437,16 +11285,16 @@
         <v>140</v>
       </c>
       <c r="J189" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K189" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L189" s="8" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="M189" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N189" s="6"/>
       <c r="O189" s="6"/>
@@ -11463,7 +11311,7 @@
       <c r="Z189" s="6"/>
       <c r="AA189" s="6"/>
     </row>
-    <row r="190" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="13">
         <v>2019</v>
       </c>
@@ -11492,16 +11340,16 @@
         <v>140</v>
       </c>
       <c r="J190" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K190" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L190" s="8" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="M190" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N190" s="6"/>
       <c r="O190" s="6"/>
@@ -11518,7 +11366,7 @@
       <c r="Z190" s="6"/>
       <c r="AA190" s="6"/>
     </row>
-    <row r="191" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191" s="13">
         <v>2019</v>
       </c>
@@ -11547,16 +11395,16 @@
         <v>130</v>
       </c>
       <c r="J191" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K191" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L191" s="8" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="M191" s="10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="N191" s="6"/>
       <c r="O191" s="6"/>
@@ -11573,7 +11421,7 @@
       <c r="Z191" s="6"/>
       <c r="AA191" s="6"/>
     </row>
-    <row r="192" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="13">
         <v>2019</v>
       </c>
@@ -11602,16 +11450,16 @@
         <v>130</v>
       </c>
       <c r="J192" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K192" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L192" s="8" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="M192" s="10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="N192" s="6"/>
       <c r="O192" s="6"/>
@@ -11628,7 +11476,7 @@
       <c r="Z192" s="6"/>
       <c r="AA192" s="6"/>
     </row>
-    <row r="193" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="13">
         <v>2019</v>
       </c>
@@ -11657,13 +11505,13 @@
         <v>140</v>
       </c>
       <c r="J193" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K193" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L193" s="8" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="M193" s="9"/>
       <c r="N193" s="6"/>
@@ -11681,7 +11529,7 @@
       <c r="Z193" s="6"/>
       <c r="AA193" s="6"/>
     </row>
-    <row r="194" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="13">
         <v>2019</v>
       </c>
@@ -11710,13 +11558,13 @@
         <v>140</v>
       </c>
       <c r="J194" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K194" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L194" s="8" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="M194" s="9"/>
       <c r="N194" s="6"/>
@@ -11734,12 +11582,12 @@
       <c r="Z194" s="6"/>
       <c r="AA194" s="6"/>
     </row>
-    <row r="195" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="13">
         <v>2019</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C195" s="13">
         <v>14</v>
@@ -11763,16 +11611,16 @@
         <v>130</v>
       </c>
       <c r="J195" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K195" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L195" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M195" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N195" s="6"/>
       <c r="O195" s="6"/>
@@ -11789,12 +11637,12 @@
       <c r="Z195" s="6"/>
       <c r="AA195" s="6"/>
     </row>
-    <row r="196" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196" s="13">
         <v>2019</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C196" s="13">
         <v>14</v>
@@ -11818,16 +11666,16 @@
         <v>168</v>
       </c>
       <c r="J196" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K196" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L196" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M196" s="10" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="N196" s="6"/>
       <c r="O196" s="6"/>
@@ -11844,12 +11692,12 @@
       <c r="Z196" s="6"/>
       <c r="AA196" s="6"/>
     </row>
-    <row r="197" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="13">
         <v>2019</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C197" s="13">
         <v>14</v>
@@ -11873,16 +11721,16 @@
         <v>130</v>
       </c>
       <c r="J197" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K197" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L197" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M197" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N197" s="6"/>
       <c r="O197" s="6"/>
@@ -11899,12 +11747,12 @@
       <c r="Z197" s="6"/>
       <c r="AA197" s="6"/>
     </row>
-    <row r="198" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="13">
         <v>2019</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C198" s="13">
         <v>14</v>
@@ -11928,16 +11776,16 @@
         <v>130</v>
       </c>
       <c r="J198" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K198" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L198" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M198" s="10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="N198" s="6"/>
       <c r="O198" s="6"/>
@@ -11954,12 +11802,12 @@
       <c r="Z198" s="6"/>
       <c r="AA198" s="6"/>
     </row>
-    <row r="199" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="13">
         <v>2019</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C199" s="13">
         <v>14</v>
@@ -11983,16 +11831,16 @@
         <v>130</v>
       </c>
       <c r="J199" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K199" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L199" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M199" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N199" s="6"/>
       <c r="O199" s="6"/>
@@ -12009,12 +11857,12 @@
       <c r="Z199" s="6"/>
       <c r="AA199" s="6"/>
     </row>
-    <row r="200" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="13">
         <v>2019</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C200" s="13">
         <v>14</v>
@@ -12038,16 +11886,16 @@
         <v>130</v>
       </c>
       <c r="J200" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K200" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L200" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M200" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N200" s="6"/>
       <c r="O200" s="6"/>
@@ -12064,12 +11912,12 @@
       <c r="Z200" s="6"/>
       <c r="AA200" s="6"/>
     </row>
-    <row r="201" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="13">
         <v>2019</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C201" s="13">
         <v>14</v>
@@ -12093,16 +11941,16 @@
         <v>130</v>
       </c>
       <c r="J201" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K201" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L201" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M201" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N201" s="6"/>
       <c r="O201" s="6"/>
@@ -12119,12 +11967,12 @@
       <c r="Z201" s="6"/>
       <c r="AA201" s="6"/>
     </row>
-    <row r="202" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="13">
         <v>2019</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C202" s="13">
         <v>14</v>
@@ -12148,16 +11996,16 @@
         <v>130</v>
       </c>
       <c r="J202" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K202" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L202" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M202" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N202" s="6"/>
       <c r="O202" s="6"/>
@@ -12174,12 +12022,12 @@
       <c r="Z202" s="6"/>
       <c r="AA202" s="6"/>
     </row>
-    <row r="203" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="13">
         <v>2019</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C203" s="13">
         <v>14</v>
@@ -12203,16 +12051,16 @@
         <v>130</v>
       </c>
       <c r="J203" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K203" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L203" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="M203" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="M203" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="N203" s="6"/>
       <c r="O203" s="6"/>
@@ -12229,12 +12077,12 @@
       <c r="Z203" s="6"/>
       <c r="AA203" s="6"/>
     </row>
-    <row r="204" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="13">
         <v>2019</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C204" s="13">
         <v>13</v>
@@ -12258,16 +12106,16 @@
         <v>130</v>
       </c>
       <c r="J204" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K204" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L204" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M204" s="10" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N204" s="6"/>
       <c r="O204" s="6"/>
@@ -12284,12 +12132,12 @@
       <c r="Z204" s="6"/>
       <c r="AA204" s="6"/>
     </row>
-    <row r="205" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="13">
         <v>2019</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C205" s="13">
         <v>13</v>
@@ -12313,16 +12161,16 @@
         <v>140</v>
       </c>
       <c r="J205" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K205" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L205" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M205" s="10" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N205" s="6"/>
       <c r="O205" s="6"/>
@@ -12339,12 +12187,12 @@
       <c r="Z205" s="6"/>
       <c r="AA205" s="6"/>
     </row>
-    <row r="206" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="13">
         <v>2019</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C206" s="13">
         <v>14</v>
@@ -12368,13 +12216,13 @@
         <v>130</v>
       </c>
       <c r="J206" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K206" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L206" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M206" s="9"/>
       <c r="N206" s="6"/>
@@ -12392,12 +12240,12 @@
       <c r="Z206" s="6"/>
       <c r="AA206" s="6"/>
     </row>
-    <row r="207" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207" s="13">
         <v>2019</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C207" s="13">
         <v>14</v>
@@ -12421,13 +12269,13 @@
         <v>130</v>
       </c>
       <c r="J207" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K207" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L207" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M207" s="9"/>
       <c r="N207" s="6"/>
@@ -12445,12 +12293,12 @@
       <c r="Z207" s="6"/>
       <c r="AA207" s="6"/>
     </row>
-    <row r="208" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208" s="13">
         <v>2019</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C208" s="13">
         <v>14</v>
@@ -12474,13 +12322,13 @@
         <v>130</v>
       </c>
       <c r="J208" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K208" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L208" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M208" s="9"/>
       <c r="N208" s="6"/>
@@ -12498,12 +12346,12 @@
       <c r="Z208" s="6"/>
       <c r="AA208" s="6"/>
     </row>
-    <row r="209" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209" s="13">
         <v>2019</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C209" s="13">
         <v>0</v>
@@ -12528,10 +12376,10 @@
       </c>
       <c r="J209" s="8"/>
       <c r="K209" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L209" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M209" s="9"/>
       <c r="N209" s="6"/>
@@ -12549,12 +12397,12 @@
       <c r="Z209" s="6"/>
       <c r="AA209" s="6"/>
     </row>
-    <row r="210" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210" s="13">
         <v>2019</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C210" s="13">
         <v>14</v>
@@ -12578,13 +12426,13 @@
         <v>130</v>
       </c>
       <c r="J210" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K210" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L210" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M210" s="9"/>
       <c r="N210" s="6"/>
@@ -12602,12 +12450,12 @@
       <c r="Z210" s="6"/>
       <c r="AA210" s="6"/>
     </row>
-    <row r="211" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="13">
         <v>2019</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C211" s="13">
         <v>14</v>
@@ -12631,13 +12479,13 @@
         <v>130</v>
       </c>
       <c r="J211" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K211" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L211" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M211" s="9"/>
       <c r="N211" s="6"/>
@@ -12655,12 +12503,12 @@
       <c r="Z211" s="6"/>
       <c r="AA211" s="6"/>
     </row>
-    <row r="212" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212" s="13">
         <v>2019</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C212" s="13">
         <v>14</v>
@@ -12684,13 +12532,13 @@
         <v>130</v>
       </c>
       <c r="J212" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K212" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L212" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M212" s="9"/>
       <c r="N212" s="6"/>
@@ -12708,12 +12556,12 @@
       <c r="Z212" s="6"/>
       <c r="AA212" s="6"/>
     </row>
-    <row r="213" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213" s="13">
         <v>2019</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C213" s="13">
         <v>0</v>
@@ -12755,12 +12603,12 @@
       <c r="Z213" s="6"/>
       <c r="AA213" s="6"/>
     </row>
-    <row r="214" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214" s="13">
         <v>2019</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="C214" s="13">
         <v>0</v>
@@ -12802,12 +12650,12 @@
       <c r="Z214" s="6"/>
       <c r="AA214" s="6"/>
     </row>
-    <row r="215" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215" s="13">
         <v>2019</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C215" s="13">
         <v>0</v>
@@ -12849,12 +12697,12 @@
       <c r="Z215" s="6"/>
       <c r="AA215" s="6"/>
     </row>
-    <row r="216" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="13">
         <v>2019</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C216" s="13">
         <v>0</v>
@@ -12896,12 +12744,12 @@
       <c r="Z216" s="6"/>
       <c r="AA216" s="6"/>
     </row>
-    <row r="217" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="23">
         <v>2018</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C217" s="13">
         <v>13</v>
@@ -12925,13 +12773,13 @@
         <v>130</v>
       </c>
       <c r="J217" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K217" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L217" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M217" s="9"/>
       <c r="N217" s="6"/>
@@ -12949,12 +12797,12 @@
       <c r="Z217" s="6"/>
       <c r="AA217" s="6"/>
     </row>
-    <row r="218" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="13">
         <v>2018</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C218" s="13">
         <v>13</v>
@@ -12978,13 +12826,13 @@
         <v>130</v>
       </c>
       <c r="J218" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K218" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L218" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M218" s="9"/>
       <c r="N218" s="6"/>
@@ -13002,12 +12850,12 @@
       <c r="Z218" s="6"/>
       <c r="AA218" s="6"/>
     </row>
-    <row r="219" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="13">
         <v>2018</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C219" s="13">
         <v>13</v>
@@ -13031,13 +12879,13 @@
         <v>130</v>
       </c>
       <c r="J219" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K219" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L219" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M219" s="9"/>
       <c r="N219" s="6"/>
@@ -13055,12 +12903,12 @@
       <c r="Z219" s="6"/>
       <c r="AA219" s="6"/>
     </row>
-    <row r="220" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="13">
         <v>2018</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C220" s="13">
         <v>13</v>
@@ -13084,13 +12932,13 @@
         <v>130</v>
       </c>
       <c r="J220" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K220" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L220" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M220" s="9"/>
       <c r="N220" s="6"/>
@@ -13108,12 +12956,12 @@
       <c r="Z220" s="6"/>
       <c r="AA220" s="6"/>
     </row>
-    <row r="221" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="13">
         <v>2018</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C221" s="13">
         <v>13</v>
@@ -13137,13 +12985,13 @@
         <v>130</v>
       </c>
       <c r="J221" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K221" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L221" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M221" s="9"/>
       <c r="N221" s="6"/>
@@ -13161,12 +13009,12 @@
       <c r="Z221" s="6"/>
       <c r="AA221" s="6"/>
     </row>
-    <row r="222" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222" s="13">
         <v>2018</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C222" s="13">
         <v>13</v>
@@ -13190,13 +13038,13 @@
         <v>130</v>
       </c>
       <c r="J222" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K222" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L222" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M222" s="9"/>
       <c r="N222" s="6"/>
@@ -13214,12 +13062,12 @@
       <c r="Z222" s="6"/>
       <c r="AA222" s="6"/>
     </row>
-    <row r="223" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="13">
         <v>2018</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C223" s="13">
         <v>13</v>
@@ -13243,13 +13091,13 @@
         <v>130</v>
       </c>
       <c r="J223" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K223" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L223" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M223" s="9"/>
       <c r="N223" s="6"/>
@@ -13267,12 +13115,12 @@
       <c r="Z223" s="6"/>
       <c r="AA223" s="6"/>
     </row>
-    <row r="224" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224" s="13">
         <v>2018</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C224" s="13">
         <v>13</v>
@@ -13296,13 +13144,13 @@
         <v>130</v>
       </c>
       <c r="J224" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K224" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L224" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M224" s="9"/>
       <c r="N224" s="6"/>
@@ -13320,12 +13168,12 @@
       <c r="Z224" s="6"/>
       <c r="AA224" s="6"/>
     </row>
-    <row r="225" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225" s="13">
         <v>2018</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C225" s="13">
         <v>13</v>
@@ -13349,13 +13197,13 @@
         <v>130</v>
       </c>
       <c r="J225" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K225" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L225" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M225" s="9"/>
       <c r="N225" s="6"/>
@@ -13373,12 +13221,12 @@
       <c r="Z225" s="6"/>
       <c r="AA225" s="6"/>
     </row>
-    <row r="226" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="13">
         <v>2018</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C226" s="13">
         <v>13</v>
@@ -13402,13 +13250,13 @@
         <v>130</v>
       </c>
       <c r="J226" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K226" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L226" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M226" s="9"/>
       <c r="N226" s="6"/>
@@ -13426,12 +13274,12 @@
       <c r="Z226" s="6"/>
       <c r="AA226" s="6"/>
     </row>
-    <row r="227" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="13">
         <v>2018</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C227" s="13">
         <v>13</v>
@@ -13455,13 +13303,13 @@
         <v>130</v>
       </c>
       <c r="J227" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K227" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L227" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M227" s="9"/>
       <c r="N227" s="6"/>
@@ -13479,12 +13327,12 @@
       <c r="Z227" s="6"/>
       <c r="AA227" s="6"/>
     </row>
-    <row r="228" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="13">
         <v>2018</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C228" s="13">
         <v>13</v>
@@ -13508,13 +13356,13 @@
         <v>130</v>
       </c>
       <c r="J228" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K228" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L228" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M228" s="9"/>
       <c r="N228" s="6"/>
@@ -13532,12 +13380,12 @@
       <c r="Z228" s="6"/>
       <c r="AA228" s="6"/>
     </row>
-    <row r="229" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="13">
         <v>2018</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C229" s="13">
         <v>0</v>
@@ -13579,12 +13427,12 @@
       <c r="Z229" s="6"/>
       <c r="AA229" s="6"/>
     </row>
-    <row r="230" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230" s="13">
         <v>2018</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C230" s="13">
         <v>0</v>
@@ -13626,12 +13474,12 @@
       <c r="Z230" s="6"/>
       <c r="AA230" s="6"/>
     </row>
-    <row r="231" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231" s="13">
         <v>2018</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C231" s="13">
         <v>0</v>
@@ -13673,12 +13521,12 @@
       <c r="Z231" s="6"/>
       <c r="AA231" s="6"/>
     </row>
-    <row r="232" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232" s="13">
         <v>2018</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C232" s="13">
         <v>13</v>
@@ -13702,16 +13550,16 @@
         <v>130</v>
       </c>
       <c r="J232" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K232" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L232" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M232" s="9" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="N232" s="6"/>
       <c r="O232" s="6"/>
@@ -13728,12 +13576,12 @@
       <c r="Z232" s="6"/>
       <c r="AA232" s="6"/>
     </row>
-    <row r="233" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233" s="13">
         <v>2018</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C233" s="13">
         <v>13</v>
@@ -13757,16 +13605,16 @@
         <v>130</v>
       </c>
       <c r="J233" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K233" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L233" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M233" s="9" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="N233" s="6"/>
       <c r="O233" s="6"/>
@@ -13783,12 +13631,12 @@
       <c r="Z233" s="6"/>
       <c r="AA233" s="6"/>
     </row>
-    <row r="234" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234" s="13">
         <v>2018</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C234" s="13">
         <v>13</v>
@@ -13812,16 +13660,16 @@
         <v>130</v>
       </c>
       <c r="J234" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K234" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L234" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M234" s="9" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="N234" s="6"/>
       <c r="O234" s="6"/>
@@ -13838,12 +13686,12 @@
       <c r="Z234" s="6"/>
       <c r="AA234" s="6"/>
     </row>
-    <row r="235" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235" s="13">
         <v>2018</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C235" s="13">
         <v>13</v>
@@ -13867,22 +13715,22 @@
         <v>130</v>
       </c>
       <c r="J235" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K235" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L235" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M235" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N235" s="19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O235" s="19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P235" s="6"/>
       <c r="Q235" s="6"/>
@@ -13897,12 +13745,12 @@
       <c r="Z235" s="6"/>
       <c r="AA235" s="6"/>
     </row>
-    <row r="236" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="13">
         <v>2018</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C236" s="13">
         <v>13</v>
@@ -13926,16 +13774,16 @@
         <v>130</v>
       </c>
       <c r="J236" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K236" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L236" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M236" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N236" s="6"/>
       <c r="O236" s="6"/>
@@ -13952,12 +13800,12 @@
       <c r="Z236" s="6"/>
       <c r="AA236" s="6"/>
     </row>
-    <row r="237" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237" s="13">
         <v>2018</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C237" s="13">
         <v>13</v>
@@ -13981,16 +13829,16 @@
         <v>130</v>
       </c>
       <c r="J237" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K237" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L237" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M237" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N237" s="6"/>
       <c r="O237" s="6"/>
@@ -14007,12 +13855,12 @@
       <c r="Z237" s="6"/>
       <c r="AA237" s="6"/>
     </row>
-    <row r="238" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238" s="13">
         <v>2018</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C238" s="13">
         <v>13</v>
@@ -14036,16 +13884,16 @@
         <v>130</v>
       </c>
       <c r="J238" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K238" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L238" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M238" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N238" s="6"/>
       <c r="O238" s="6"/>
@@ -14062,12 +13910,12 @@
       <c r="Z238" s="6"/>
       <c r="AA238" s="6"/>
     </row>
-    <row r="239" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239" s="13">
         <v>2018</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C239" s="13">
         <v>13</v>
@@ -14091,16 +13939,16 @@
         <v>130</v>
       </c>
       <c r="J239" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K239" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L239" s="8" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="M239" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N239" s="6"/>
       <c r="O239" s="6"/>
@@ -14117,7 +13965,7 @@
       <c r="Z239" s="6"/>
       <c r="AA239" s="6"/>
     </row>
-    <row r="240" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240" s="13">
         <v>2018</v>
       </c>
@@ -14146,16 +13994,16 @@
         <v>140</v>
       </c>
       <c r="J240" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K240" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L240" s="8" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="M240" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N240" s="6"/>
       <c r="O240" s="6"/>
@@ -14172,7 +14020,7 @@
       <c r="Z240" s="6"/>
       <c r="AA240" s="6"/>
     </row>
-    <row r="241" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241" s="13">
         <v>2018</v>
       </c>
@@ -14201,16 +14049,16 @@
         <v>140</v>
       </c>
       <c r="J241" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K241" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L241" s="8" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="M241" s="10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="N241" s="6"/>
       <c r="O241" s="6"/>
@@ -14227,7 +14075,7 @@
       <c r="Z241" s="6"/>
       <c r="AA241" s="6"/>
     </row>
-    <row r="242" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242" s="13">
         <v>2018</v>
       </c>
@@ -14256,16 +14104,16 @@
         <v>140</v>
       </c>
       <c r="J242" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K242" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L242" s="8" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="M242" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N242" s="6"/>
       <c r="O242" s="6"/>
@@ -14282,7 +14130,7 @@
       <c r="Z242" s="6"/>
       <c r="AA242" s="6"/>
     </row>
-    <row r="243" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243" s="13">
         <v>2018</v>
       </c>
@@ -14311,16 +14159,16 @@
         <v>140</v>
       </c>
       <c r="J243" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K243" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L243" s="8" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="M243" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N243" s="6"/>
       <c r="O243" s="6"/>
@@ -14337,7 +14185,7 @@
       <c r="Z243" s="6"/>
       <c r="AA243" s="6"/>
     </row>
-    <row r="244" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244" s="13">
         <v>2018</v>
       </c>
@@ -14366,16 +14214,16 @@
         <v>130</v>
       </c>
       <c r="J244" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K244" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L244" s="8" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="M244" s="10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="N244" s="6"/>
       <c r="O244" s="6"/>
@@ -14392,7 +14240,7 @@
       <c r="Z244" s="6"/>
       <c r="AA244" s="6"/>
     </row>
-    <row r="245" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245" s="13">
         <v>2018</v>
       </c>
@@ -14421,16 +14269,16 @@
         <v>130</v>
       </c>
       <c r="J245" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K245" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L245" s="8" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="M245" s="10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="N245" s="6"/>
       <c r="O245" s="6"/>
@@ -14447,7 +14295,7 @@
       <c r="Z245" s="6"/>
       <c r="AA245" s="6"/>
     </row>
-    <row r="246" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246" s="13">
         <v>2018</v>
       </c>
@@ -14476,13 +14324,13 @@
         <v>140</v>
       </c>
       <c r="J246" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K246" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L246" s="8" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="M246" s="9"/>
       <c r="N246" s="6"/>
@@ -14500,7 +14348,7 @@
       <c r="Z246" s="6"/>
       <c r="AA246" s="6"/>
     </row>
-    <row r="247" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247" s="13">
         <v>2018</v>
       </c>
@@ -14529,13 +14377,13 @@
         <v>140</v>
       </c>
       <c r="J247" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K247" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L247" s="8" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="M247" s="9"/>
       <c r="N247" s="6"/>
@@ -14553,12 +14401,12 @@
       <c r="Z247" s="6"/>
       <c r="AA247" s="6"/>
     </row>
-    <row r="248" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248" s="13">
         <v>2018</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C248" s="13">
         <v>13</v>
@@ -14582,16 +14430,16 @@
         <v>130</v>
       </c>
       <c r="J248" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K248" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L248" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M248" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N248" s="6"/>
       <c r="O248" s="6"/>
@@ -14608,12 +14456,12 @@
       <c r="Z248" s="6"/>
       <c r="AA248" s="6"/>
     </row>
-    <row r="249" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249" s="13">
         <v>2018</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C249" s="13">
         <v>13</v>
@@ -14637,16 +14485,16 @@
         <v>168</v>
       </c>
       <c r="J249" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K249" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L249" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M249" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N249" s="6"/>
       <c r="O249" s="6"/>
@@ -14663,12 +14511,12 @@
       <c r="Z249" s="6"/>
       <c r="AA249" s="6"/>
     </row>
-    <row r="250" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250" s="13">
         <v>2018</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C250" s="13">
         <v>13</v>
@@ -14692,16 +14540,16 @@
         <v>130</v>
       </c>
       <c r="J250" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="K250" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L250" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="K250" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L250" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="M250" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N250" s="6"/>
       <c r="O250" s="6"/>
@@ -14718,12 +14566,12 @@
       <c r="Z250" s="6"/>
       <c r="AA250" s="6"/>
     </row>
-    <row r="251" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251" s="13">
         <v>2018</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C251" s="13">
         <v>13</v>
@@ -14747,16 +14595,16 @@
         <v>130</v>
       </c>
       <c r="J251" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K251" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L251" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M251" s="10" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="N251" s="6"/>
       <c r="O251" s="6"/>
@@ -14773,12 +14621,12 @@
       <c r="Z251" s="6"/>
       <c r="AA251" s="6"/>
     </row>
-    <row r="252" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252" s="13">
         <v>2018</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C252" s="13">
         <v>13</v>
@@ -14802,16 +14650,16 @@
         <v>130</v>
       </c>
       <c r="J252" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K252" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L252" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M252" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N252" s="6"/>
       <c r="O252" s="6"/>
@@ -14828,12 +14676,12 @@
       <c r="Z252" s="6"/>
       <c r="AA252" s="6"/>
     </row>
-    <row r="253" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A253" s="13">
         <v>2018</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C253" s="13">
         <v>13</v>
@@ -14857,16 +14705,16 @@
         <v>130</v>
       </c>
       <c r="J253" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K253" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L253" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M253" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N253" s="6"/>
       <c r="O253" s="6"/>
@@ -14883,12 +14731,12 @@
       <c r="Z253" s="6"/>
       <c r="AA253" s="6"/>
     </row>
-    <row r="254" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254" s="13">
         <v>2018</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C254" s="13">
         <v>13</v>
@@ -14912,16 +14760,16 @@
         <v>130</v>
       </c>
       <c r="J254" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K254" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L254" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M254" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N254" s="6"/>
       <c r="O254" s="6"/>
@@ -14938,12 +14786,12 @@
       <c r="Z254" s="6"/>
       <c r="AA254" s="6"/>
     </row>
-    <row r="255" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255" s="13">
         <v>2018</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C255" s="13">
         <v>13</v>
@@ -14967,16 +14815,16 @@
         <v>130</v>
       </c>
       <c r="J255" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K255" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L255" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M255" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N255" s="6"/>
       <c r="O255" s="6"/>
@@ -14993,12 +14841,12 @@
       <c r="Z255" s="6"/>
       <c r="AA255" s="6"/>
     </row>
-    <row r="256" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A256" s="13">
         <v>2018</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C256" s="13">
         <v>13</v>
@@ -15022,16 +14870,16 @@
         <v>130</v>
       </c>
       <c r="J256" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K256" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L256" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="M256" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="M256" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="N256" s="6"/>
       <c r="O256" s="6"/>
@@ -15048,12 +14896,12 @@
       <c r="Z256" s="6"/>
       <c r="AA256" s="6"/>
     </row>
-    <row r="257" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257" s="13">
         <v>2018</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C257" s="13">
         <v>12</v>
@@ -15077,16 +14925,16 @@
         <v>130</v>
       </c>
       <c r="J257" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K257" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L257" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="M257" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="M257" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="N257" s="6"/>
       <c r="O257" s="6"/>
@@ -15103,12 +14951,12 @@
       <c r="Z257" s="6"/>
       <c r="AA257" s="6"/>
     </row>
-    <row r="258" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258" s="13">
         <v>2018</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C258" s="13">
         <v>12</v>
@@ -15132,16 +14980,16 @@
         <v>140</v>
       </c>
       <c r="J258" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K258" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L258" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="M258" s="10" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="N258" s="6"/>
       <c r="O258" s="6"/>
@@ -15158,12 +15006,12 @@
       <c r="Z258" s="6"/>
       <c r="AA258" s="6"/>
     </row>
-    <row r="259" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259" s="13">
         <v>2018</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C259" s="13">
         <v>13</v>
@@ -15187,13 +15035,13 @@
         <v>130</v>
       </c>
       <c r="J259" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K259" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L259" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M259" s="9"/>
       <c r="N259" s="6"/>
@@ -15211,12 +15059,12 @@
       <c r="Z259" s="6"/>
       <c r="AA259" s="6"/>
     </row>
-    <row r="260" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A260" s="13">
         <v>2018</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C260" s="13">
         <v>13</v>
@@ -15240,13 +15088,13 @@
         <v>130</v>
       </c>
       <c r="J260" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K260" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L260" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M260" s="9"/>
       <c r="N260" s="6"/>
@@ -15264,12 +15112,12 @@
       <c r="Z260" s="6"/>
       <c r="AA260" s="6"/>
     </row>
-    <row r="261" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A261" s="13">
         <v>2018</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C261" s="13">
         <v>13</v>
@@ -15293,13 +15141,13 @@
         <v>130</v>
       </c>
       <c r="J261" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K261" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L261" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M261" s="9"/>
       <c r="N261" s="6"/>
@@ -15317,12 +15165,12 @@
       <c r="Z261" s="6"/>
       <c r="AA261" s="6"/>
     </row>
-    <row r="262" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262" s="13">
         <v>2018</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C262" s="13">
         <v>0</v>
@@ -15347,10 +15195,10 @@
       </c>
       <c r="J262" s="8"/>
       <c r="K262" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L262" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M262" s="9"/>
       <c r="N262" s="6"/>
@@ -15368,12 +15216,12 @@
       <c r="Z262" s="6"/>
       <c r="AA262" s="6"/>
     </row>
-    <row r="263" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263" s="13">
         <v>2018</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C263" s="13">
         <v>13</v>
@@ -15397,13 +15245,13 @@
         <v>130</v>
       </c>
       <c r="J263" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K263" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L263" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M263" s="9"/>
       <c r="N263" s="6"/>
@@ -15421,12 +15269,12 @@
       <c r="Z263" s="6"/>
       <c r="AA263" s="6"/>
     </row>
-    <row r="264" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A264" s="13">
         <v>2018</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C264" s="13">
         <v>13</v>
@@ -15450,13 +15298,13 @@
         <v>130</v>
       </c>
       <c r="J264" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K264" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L264" s="8" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="M264" s="9"/>
       <c r="N264" s="6"/>
@@ -15474,12 +15322,12 @@
       <c r="Z264" s="6"/>
       <c r="AA264" s="6"/>
     </row>
-    <row r="265" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A265" s="13">
         <v>2018</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="C265" s="13">
         <v>13</v>
@@ -15503,13 +15351,13 @@
         <v>130</v>
       </c>
       <c r="J265" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K265" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L265" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M265" s="9"/>
       <c r="N265" s="6"/>
@@ -15527,7 +15375,7 @@
       <c r="Z265" s="6"/>
       <c r="AA265" s="6"/>
     </row>
-    <row r="266" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A266" s="13"/>
       <c r="B266" s="6"/>
       <c r="C266" s="13"/>
@@ -15556,7 +15404,7 @@
       <c r="Z266" s="6"/>
       <c r="AA266" s="6"/>
     </row>
-    <row r="267" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A267" s="13"/>
       <c r="B267" s="6"/>
       <c r="C267" s="13"/>
@@ -15585,7 +15433,7 @@
       <c r="Z267" s="6"/>
       <c r="AA267" s="6"/>
     </row>
-    <row r="268" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A268" s="13"/>
       <c r="B268" s="6"/>
       <c r="C268" s="13"/>
@@ -15614,7 +15462,7 @@
       <c r="Z268" s="6"/>
       <c r="AA268" s="6"/>
     </row>
-    <row r="269" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A269" s="13"/>
       <c r="B269" s="6"/>
       <c r="C269" s="13"/>
@@ -15643,7 +15491,7 @@
       <c r="Z269" s="6"/>
       <c r="AA269" s="6"/>
     </row>
-    <row r="270" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A270" s="13"/>
       <c r="B270" s="6"/>
       <c r="C270" s="13"/>
@@ -15672,7 +15520,7 @@
       <c r="Z270" s="6"/>
       <c r="AA270" s="6"/>
     </row>
-    <row r="271" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A271" s="13"/>
       <c r="B271" s="6"/>
       <c r="C271" s="13"/>
@@ -15701,7 +15549,7 @@
       <c r="Z271" s="6"/>
       <c r="AA271" s="6"/>
     </row>
-    <row r="272" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A272" s="13"/>
       <c r="B272" s="6"/>
       <c r="C272" s="13"/>
@@ -15730,7 +15578,7 @@
       <c r="Z272" s="6"/>
       <c r="AA272" s="6"/>
     </row>
-    <row r="273" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A273" s="13"/>
       <c r="B273" s="6"/>
       <c r="C273" s="13"/>
@@ -15759,7 +15607,7 @@
       <c r="Z273" s="6"/>
       <c r="AA273" s="6"/>
     </row>
-    <row r="274" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A274" s="13"/>
       <c r="B274" s="6"/>
       <c r="C274" s="13"/>
@@ -15788,7 +15636,7 @@
       <c r="Z274" s="6"/>
       <c r="AA274" s="6"/>
     </row>
-    <row r="275" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A275" s="13"/>
       <c r="B275" s="6"/>
       <c r="C275" s="13"/>
@@ -15817,7 +15665,7 @@
       <c r="Z275" s="6"/>
       <c r="AA275" s="6"/>
     </row>
-    <row r="276" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A276" s="13"/>
       <c r="B276" s="6"/>
       <c r="C276" s="13"/>
@@ -15846,7 +15694,7 @@
       <c r="Z276" s="6"/>
       <c r="AA276" s="6"/>
     </row>
-    <row r="277" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A277" s="13"/>
       <c r="B277" s="6"/>
       <c r="C277" s="13"/>
@@ -15875,7 +15723,7 @@
       <c r="Z277" s="6"/>
       <c r="AA277" s="6"/>
     </row>
-    <row r="278" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A278" s="13"/>
       <c r="B278" s="6"/>
       <c r="C278" s="13"/>
@@ -15904,7 +15752,7 @@
       <c r="Z278" s="6"/>
       <c r="AA278" s="6"/>
     </row>
-    <row r="279" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A279" s="13"/>
       <c r="B279" s="6"/>
       <c r="C279" s="13"/>
@@ -15933,7 +15781,7 @@
       <c r="Z279" s="6"/>
       <c r="AA279" s="6"/>
     </row>
-    <row r="280" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A280" s="13"/>
       <c r="B280" s="6"/>
       <c r="C280" s="13"/>
@@ -15962,7 +15810,7 @@
       <c r="Z280" s="6"/>
       <c r="AA280" s="6"/>
     </row>
-    <row r="281" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A281" s="13"/>
       <c r="B281" s="6"/>
       <c r="C281" s="13"/>
@@ -15991,7 +15839,7 @@
       <c r="Z281" s="6"/>
       <c r="AA281" s="6"/>
     </row>
-    <row r="282" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A282" s="13"/>
       <c r="B282" s="6"/>
       <c r="C282" s="13"/>
@@ -16020,7 +15868,7 @@
       <c r="Z282" s="6"/>
       <c r="AA282" s="6"/>
     </row>
-    <row r="283" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A283" s="13"/>
       <c r="B283" s="6"/>
       <c r="C283" s="13"/>
@@ -16049,7 +15897,7 @@
       <c r="Z283" s="6"/>
       <c r="AA283" s="6"/>
     </row>
-    <row r="284" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A284" s="13"/>
       <c r="B284" s="6"/>
       <c r="C284" s="13"/>
@@ -16078,7 +15926,7 @@
       <c r="Z284" s="6"/>
       <c r="AA284" s="6"/>
     </row>
-    <row r="285" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A285" s="13"/>
       <c r="B285" s="6"/>
       <c r="C285" s="13"/>
@@ -16107,7 +15955,7 @@
       <c r="Z285" s="6"/>
       <c r="AA285" s="6"/>
     </row>
-    <row r="286" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A286" s="13"/>
       <c r="B286" s="6"/>
       <c r="C286" s="13"/>
@@ -16136,7 +15984,7 @@
       <c r="Z286" s="6"/>
       <c r="AA286" s="6"/>
     </row>
-    <row r="287" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A287" s="13"/>
       <c r="B287" s="6"/>
       <c r="C287" s="13"/>
@@ -16165,7 +16013,7 @@
       <c r="Z287" s="6"/>
       <c r="AA287" s="6"/>
     </row>
-    <row r="288" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A288" s="13"/>
       <c r="B288" s="6"/>
       <c r="C288" s="13"/>
@@ -16194,7 +16042,7 @@
       <c r="Z288" s="6"/>
       <c r="AA288" s="6"/>
     </row>
-    <row r="289" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A289" s="13"/>
       <c r="B289" s="6"/>
       <c r="C289" s="13"/>
@@ -16223,7 +16071,7 @@
       <c r="Z289" s="6"/>
       <c r="AA289" s="6"/>
     </row>
-    <row r="290" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A290" s="13"/>
       <c r="B290" s="6"/>
       <c r="C290" s="13"/>
@@ -16252,7 +16100,7 @@
       <c r="Z290" s="6"/>
       <c r="AA290" s="6"/>
     </row>
-    <row r="291" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A291" s="13"/>
       <c r="B291" s="6"/>
       <c r="C291" s="13"/>
@@ -16281,7 +16129,7 @@
       <c r="Z291" s="6"/>
       <c r="AA291" s="6"/>
     </row>
-    <row r="292" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A292" s="13"/>
       <c r="B292" s="6"/>
       <c r="C292" s="13"/>
@@ -16310,7 +16158,7 @@
       <c r="Z292" s="6"/>
       <c r="AA292" s="6"/>
     </row>
-    <row r="293" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A293" s="13"/>
       <c r="B293" s="6"/>
       <c r="C293" s="13"/>
@@ -16339,7 +16187,7 @@
       <c r="Z293" s="6"/>
       <c r="AA293" s="6"/>
     </row>
-    <row r="294" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A294" s="13"/>
       <c r="B294" s="6"/>
       <c r="C294" s="13"/>
@@ -16368,7 +16216,7 @@
       <c r="Z294" s="6"/>
       <c r="AA294" s="6"/>
     </row>
-    <row r="295" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A295" s="13"/>
       <c r="B295" s="6"/>
       <c r="C295" s="13"/>
@@ -16397,7 +16245,7 @@
       <c r="Z295" s="6"/>
       <c r="AA295" s="6"/>
     </row>
-    <row r="296" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A296" s="13"/>
       <c r="B296" s="6"/>
       <c r="C296" s="13"/>
@@ -16426,7 +16274,7 @@
       <c r="Z296" s="6"/>
       <c r="AA296" s="6"/>
     </row>
-    <row r="297" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A297" s="13"/>
       <c r="B297" s="6"/>
       <c r="C297" s="13"/>
@@ -16455,7 +16303,7 @@
       <c r="Z297" s="6"/>
       <c r="AA297" s="6"/>
     </row>
-    <row r="298" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A298" s="13"/>
       <c r="B298" s="6"/>
       <c r="C298" s="13"/>
@@ -16484,7 +16332,7 @@
       <c r="Z298" s="6"/>
       <c r="AA298" s="6"/>
     </row>
-    <row r="299" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A299" s="13"/>
       <c r="B299" s="6"/>
       <c r="C299" s="13"/>
@@ -16513,7 +16361,7 @@
       <c r="Z299" s="6"/>
       <c r="AA299" s="6"/>
     </row>
-    <row r="300" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A300" s="13"/>
       <c r="B300" s="6"/>
       <c r="C300" s="13"/>
@@ -16542,7 +16390,7 @@
       <c r="Z300" s="6"/>
       <c r="AA300" s="6"/>
     </row>
-    <row r="301" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A301" s="13"/>
       <c r="B301" s="6"/>
       <c r="C301" s="13"/>
@@ -16571,7 +16419,7 @@
       <c r="Z301" s="6"/>
       <c r="AA301" s="6"/>
     </row>
-    <row r="302" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A302" s="13"/>
       <c r="B302" s="6"/>
       <c r="C302" s="13"/>
@@ -16600,7 +16448,7 @@
       <c r="Z302" s="6"/>
       <c r="AA302" s="6"/>
     </row>
-    <row r="303" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A303" s="13"/>
       <c r="B303" s="6"/>
       <c r="C303" s="13"/>
@@ -16629,7 +16477,7 @@
       <c r="Z303" s="6"/>
       <c r="AA303" s="6"/>
     </row>
-    <row r="304" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A304" s="13"/>
       <c r="B304" s="6"/>
       <c r="C304" s="13"/>
@@ -16658,7 +16506,7 @@
       <c r="Z304" s="6"/>
       <c r="AA304" s="6"/>
     </row>
-    <row r="305" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A305" s="13"/>
       <c r="B305" s="6"/>
       <c r="C305" s="13"/>
@@ -16687,7 +16535,7 @@
       <c r="Z305" s="6"/>
       <c r="AA305" s="6"/>
     </row>
-    <row r="306" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A306" s="13"/>
       <c r="B306" s="6"/>
       <c r="C306" s="13"/>
@@ -16716,7 +16564,7 @@
       <c r="Z306" s="6"/>
       <c r="AA306" s="6"/>
     </row>
-    <row r="307" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A307" s="13"/>
       <c r="B307" s="6"/>
       <c r="C307" s="13"/>
@@ -16745,7 +16593,7 @@
       <c r="Z307" s="6"/>
       <c r="AA307" s="6"/>
     </row>
-    <row r="308" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A308" s="13"/>
       <c r="B308" s="6"/>
       <c r="C308" s="13"/>
@@ -16774,7 +16622,7 @@
       <c r="Z308" s="6"/>
       <c r="AA308" s="6"/>
     </row>
-    <row r="309" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A309" s="13"/>
       <c r="B309" s="6"/>
       <c r="C309" s="13"/>
@@ -16803,7 +16651,7 @@
       <c r="Z309" s="6"/>
       <c r="AA309" s="6"/>
     </row>
-    <row r="310" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A310" s="13"/>
       <c r="B310" s="6"/>
       <c r="C310" s="13"/>
@@ -16832,7 +16680,7 @@
       <c r="Z310" s="6"/>
       <c r="AA310" s="6"/>
     </row>
-    <row r="311" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A311" s="13"/>
       <c r="B311" s="6"/>
       <c r="C311" s="13"/>
@@ -16861,7 +16709,7 @@
       <c r="Z311" s="6"/>
       <c r="AA311" s="6"/>
     </row>
-    <row r="312" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A312" s="13"/>
       <c r="B312" s="6"/>
       <c r="C312" s="13"/>
@@ -16890,7 +16738,7 @@
       <c r="Z312" s="6"/>
       <c r="AA312" s="6"/>
     </row>
-    <row r="313" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A313" s="13"/>
       <c r="B313" s="6"/>
       <c r="C313" s="13"/>
@@ -16919,7 +16767,7 @@
       <c r="Z313" s="6"/>
       <c r="AA313" s="6"/>
     </row>
-    <row r="314" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A314" s="13"/>
       <c r="B314" s="6"/>
       <c r="C314" s="13"/>
@@ -16948,7 +16796,7 @@
       <c r="Z314" s="6"/>
       <c r="AA314" s="6"/>
     </row>
-    <row r="315" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A315" s="13"/>
       <c r="B315" s="6"/>
       <c r="C315" s="13"/>
@@ -16977,7 +16825,7 @@
       <c r="Z315" s="6"/>
       <c r="AA315" s="6"/>
     </row>
-    <row r="316" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A316" s="13"/>
       <c r="B316" s="6"/>
       <c r="C316" s="13"/>
@@ -17006,7 +16854,7 @@
       <c r="Z316" s="6"/>
       <c r="AA316" s="6"/>
     </row>
-    <row r="317" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A317" s="13"/>
       <c r="B317" s="6"/>
       <c r="C317" s="13"/>
@@ -17035,7 +16883,7 @@
       <c r="Z317" s="6"/>
       <c r="AA317" s="6"/>
     </row>
-    <row r="318" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A318" s="13"/>
       <c r="B318" s="6"/>
       <c r="C318" s="13"/>
@@ -17064,7 +16912,7 @@
       <c r="Z318" s="6"/>
       <c r="AA318" s="6"/>
     </row>
-    <row r="319" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A319" s="13"/>
       <c r="B319" s="6"/>
       <c r="C319" s="13"/>
@@ -17093,7 +16941,7 @@
       <c r="Z319" s="6"/>
       <c r="AA319" s="6"/>
     </row>
-    <row r="320" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A320" s="13"/>
       <c r="B320" s="6"/>
       <c r="C320" s="13"/>
@@ -17122,7 +16970,7 @@
       <c r="Z320" s="6"/>
       <c r="AA320" s="6"/>
     </row>
-    <row r="321" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A321" s="13"/>
       <c r="B321" s="6"/>
       <c r="C321" s="13"/>
@@ -17151,7 +16999,7 @@
       <c r="Z321" s="6"/>
       <c r="AA321" s="6"/>
     </row>
-    <row r="322" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A322" s="13"/>
       <c r="B322" s="6"/>
       <c r="C322" s="13"/>
@@ -17180,7 +17028,7 @@
       <c r="Z322" s="6"/>
       <c r="AA322" s="6"/>
     </row>
-    <row r="323" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A323" s="13"/>
       <c r="B323" s="6"/>
       <c r="C323" s="13"/>
@@ -17209,7 +17057,7 @@
       <c r="Z323" s="6"/>
       <c r="AA323" s="6"/>
     </row>
-    <row r="324" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A324" s="13"/>
       <c r="B324" s="6"/>
       <c r="C324" s="13"/>
@@ -17238,7 +17086,7 @@
       <c r="Z324" s="6"/>
       <c r="AA324" s="6"/>
     </row>
-    <row r="325" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A325" s="13"/>
       <c r="B325" s="6"/>
       <c r="C325" s="13"/>
@@ -17267,7 +17115,7 @@
       <c r="Z325" s="6"/>
       <c r="AA325" s="6"/>
     </row>
-    <row r="326" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A326" s="13"/>
       <c r="B326" s="6"/>
       <c r="C326" s="13"/>
@@ -17296,7 +17144,7 @@
       <c r="Z326" s="6"/>
       <c r="AA326" s="6"/>
     </row>
-    <row r="327" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A327" s="13"/>
       <c r="B327" s="6"/>
       <c r="C327" s="13"/>
@@ -17325,7 +17173,7 @@
       <c r="Z327" s="6"/>
       <c r="AA327" s="6"/>
     </row>
-    <row r="328" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A328" s="13"/>
       <c r="B328" s="6"/>
       <c r="C328" s="13"/>
@@ -17354,7 +17202,7 @@
       <c r="Z328" s="6"/>
       <c r="AA328" s="6"/>
     </row>
-    <row r="329" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A329" s="13"/>
       <c r="B329" s="6"/>
       <c r="C329" s="13"/>
@@ -17383,7 +17231,7 @@
       <c r="Z329" s="6"/>
       <c r="AA329" s="6"/>
     </row>
-    <row r="330" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A330" s="13"/>
       <c r="B330" s="6"/>
       <c r="C330" s="13"/>
@@ -17412,7 +17260,7 @@
       <c r="Z330" s="6"/>
       <c r="AA330" s="6"/>
     </row>
-    <row r="331" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A331" s="13"/>
       <c r="B331" s="6"/>
       <c r="C331" s="13"/>
@@ -17441,7 +17289,7 @@
       <c r="Z331" s="6"/>
       <c r="AA331" s="6"/>
     </row>
-    <row r="332" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A332" s="13"/>
       <c r="B332" s="6"/>
       <c r="C332" s="13"/>
@@ -17470,7 +17318,7 @@
       <c r="Z332" s="6"/>
       <c r="AA332" s="6"/>
     </row>
-    <row r="333" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A333" s="13"/>
       <c r="B333" s="6"/>
       <c r="C333" s="13"/>
@@ -17499,7 +17347,7 @@
       <c r="Z333" s="6"/>
       <c r="AA333" s="6"/>
     </row>
-    <row r="334" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A334" s="13"/>
       <c r="B334" s="6"/>
       <c r="C334" s="13"/>
@@ -17528,7 +17376,7 @@
       <c r="Z334" s="6"/>
       <c r="AA334" s="6"/>
     </row>
-    <row r="335" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A335" s="13"/>
       <c r="B335" s="6"/>
       <c r="C335" s="13"/>
@@ -17557,7 +17405,7 @@
       <c r="Z335" s="6"/>
       <c r="AA335" s="6"/>
     </row>
-    <row r="336" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A336" s="13"/>
       <c r="B336" s="6"/>
       <c r="C336" s="13"/>
@@ -17586,7 +17434,7 @@
       <c r="Z336" s="6"/>
       <c r="AA336" s="6"/>
     </row>
-    <row r="337" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A337" s="13"/>
       <c r="B337" s="6"/>
       <c r="C337" s="13"/>
@@ -17615,7 +17463,7 @@
       <c r="Z337" s="6"/>
       <c r="AA337" s="6"/>
     </row>
-    <row r="338" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A338" s="13"/>
       <c r="B338" s="6"/>
       <c r="C338" s="13"/>
@@ -17644,7 +17492,7 @@
       <c r="Z338" s="6"/>
       <c r="AA338" s="6"/>
     </row>
-    <row r="339" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A339" s="13"/>
       <c r="B339" s="6"/>
       <c r="C339" s="13"/>
@@ -17673,7 +17521,7 @@
       <c r="Z339" s="6"/>
       <c r="AA339" s="6"/>
     </row>
-    <row r="340" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A340" s="13"/>
       <c r="B340" s="6"/>
       <c r="C340" s="13"/>
@@ -17702,7 +17550,7 @@
       <c r="Z340" s="6"/>
       <c r="AA340" s="6"/>
     </row>
-    <row r="341" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A341" s="13"/>
       <c r="B341" s="6"/>
       <c r="C341" s="13"/>
@@ -17731,7 +17579,7 @@
       <c r="Z341" s="6"/>
       <c r="AA341" s="6"/>
     </row>
-    <row r="342" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A342" s="13"/>
       <c r="B342" s="6"/>
       <c r="C342" s="13"/>
@@ -17760,7 +17608,7 @@
       <c r="Z342" s="6"/>
       <c r="AA342" s="6"/>
     </row>
-    <row r="343" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A343" s="13"/>
       <c r="B343" s="6"/>
       <c r="C343" s="13"/>
@@ -17789,7 +17637,7 @@
       <c r="Z343" s="6"/>
       <c r="AA343" s="6"/>
     </row>
-    <row r="344" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A344" s="13"/>
       <c r="B344" s="6"/>
       <c r="C344" s="13"/>
@@ -17818,7 +17666,7 @@
       <c r="Z344" s="6"/>
       <c r="AA344" s="6"/>
     </row>
-    <row r="345" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A345" s="13"/>
       <c r="B345" s="6"/>
       <c r="C345" s="13"/>
@@ -17847,7 +17695,7 @@
       <c r="Z345" s="6"/>
       <c r="AA345" s="6"/>
     </row>
-    <row r="346" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A346" s="13"/>
       <c r="B346" s="6"/>
       <c r="C346" s="13"/>
@@ -17876,7 +17724,7 @@
       <c r="Z346" s="6"/>
       <c r="AA346" s="6"/>
     </row>
-    <row r="347" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A347" s="13"/>
       <c r="B347" s="6"/>
       <c r="C347" s="13"/>
@@ -17905,7 +17753,7 @@
       <c r="Z347" s="6"/>
       <c r="AA347" s="6"/>
     </row>
-    <row r="348" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A348" s="13"/>
       <c r="B348" s="6"/>
       <c r="C348" s="13"/>
@@ -17934,7 +17782,7 @@
       <c r="Z348" s="6"/>
       <c r="AA348" s="6"/>
     </row>
-    <row r="349" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A349" s="13"/>
       <c r="B349" s="6"/>
       <c r="C349" s="13"/>
@@ -17963,7 +17811,7 @@
       <c r="Z349" s="6"/>
       <c r="AA349" s="6"/>
     </row>
-    <row r="350" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A350" s="13"/>
       <c r="B350" s="6"/>
       <c r="C350" s="13"/>
@@ -17992,7 +17840,7 @@
       <c r="Z350" s="6"/>
       <c r="AA350" s="6"/>
     </row>
-    <row r="351" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A351" s="13"/>
       <c r="B351" s="6"/>
       <c r="C351" s="13"/>
@@ -18021,7 +17869,7 @@
       <c r="Z351" s="6"/>
       <c r="AA351" s="6"/>
     </row>
-    <row r="352" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A352" s="13"/>
       <c r="B352" s="6"/>
       <c r="C352" s="13"/>
@@ -18050,7 +17898,7 @@
       <c r="Z352" s="6"/>
       <c r="AA352" s="6"/>
     </row>
-    <row r="353" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:27" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A353" s="13"/>
       <c r="B353" s="6"/>
       <c r="C353" s="13"/>
@@ -18082,7 +17930,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
